--- a/result1.xlsx
+++ b/result1.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:A127"/>
+  <dimension ref="A2:A185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,882 +356,1288 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 또한 건설 인턴 당시 아침 일찍 일어 업무 준비 부지런히 행동 성실 많이 듣다 </t>
+          <t xml:space="preserve">대인관계 이처럼 국민 건강 보험 공단 입사 작다 희생 목표 지키다 작다 희생자 가다 </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 성실 꼼꼼 함 바탕 연구자 편의 도모 평소 출근 시간 더 일찍 출근 연구실 청소 연구가 늦다 까다 이어지다 뒷정리 어렵다 아침 흘리다 시료 정리 </t>
+          <t xml:space="preserve">대인관계 조기 유학 뉴 랜드 살다 적이 한국 오가다 불만족 항공 서비스 고생 귀국 쯤 뉴 랜드 직항 취항 대 항공 이용 확연히 비교 서비스 차이 느끼다 대한 항공 서비스 발전 세계 속 다양 문화 포용 서비스 실현 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 완벽 추구 성격 처음 시작 다소 느리다 앞 일어나다 돌발 상황 미리 파악 대처 비로소 일 시작 관련 논문 이상 읽다 실험 레포트 작성 이미 레포트 많이 진행 조 보다 조급 해하다 그래서 주어지다 일 완벽히 마무리 방지 위하다 남 일찍 준비 노력 </t>
+          <t xml:space="preserve">대인관계 반면 최고 서비스 마카오 호텔 지배인 서비스 마카오 호텔 머물다 지내다 체하다 호텔 도움 요청 적이 그러다 마카오 법상 호텔 내부 약물 반입 금지 약 가지다 밤 늦다 약국 문 닫다 그러다 지배인 마사지 잠들다 따뜻 차 가져다주다 지배인 보여주다 성의 관심 게 깊다 감동 주다 마카오 가다 다시 호텔 가다 고객 작다 요구 귀 기울이다 고객 마음 남다 그래서 고객 다시 찾다 대 항공 되게 </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 현물 제작 과정 재료 혼합 만들다 물질 목표 잡다 특성 부합 수준 이르다 수없이 많다 실패 거듭 계속 실패 불구 원인 분석 매번 추가 적인 조사 통하다 주요 성분 및 첨가 제의 비율 변화 반복 실험 진행 결과 마침내 기획 아이디어 현실화하다 성공 공모전 금상 쾌거 이루다 </t>
+          <t xml:space="preserve">대인관계 신뢰 책임 대하다 실천적 행동 얻다 한류 콘서트 전시 기획 바이어 미팅 주선 적이 메인 스텝 가장 나이 어림 불구 중앙 본부장 맡다 전체적 상황 대하다 정리 보다 역할 맡다 결과 부서 전시 전 변수 무사히 조율 성공 팀 동료 인정받다 사람 신뢰 시작 느끼다 곳 얻다 신뢰 절다 전시 스텝 중앙 본부장 상황 보고 받다 전체 상황 정리 무사히 성공적 마치다 부상 스텝 콘서트 함께 즐기다 </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 연구 및 개발 업무 혁신 위하다 창 성도 중요 원하다 수준 결과 얻다 내기 위 끈기 집중력 필수적 어리다 시절 바둑 배우다 적이 바둑은 보통 한판 두다 시작 짧다 시간 내지 시간 까다 길다 시간 동안 집중력 끈기 필요 바둑 통하다 몸 베다 습관 지금 성격 일 집중력 처리 자부 이러하다 집중력 작다 실수 크다 손실 발생 생산 관리 업무 크다 도움 </t>
+          <t xml:space="preserve">대인관계 활동 초반 사람 인식 문제 깨닫다 이러하다 문제 해결 해 주변 사람 작다 변화 만들다 문제점 무관심 과 정보 부족 대학생 국민 연금 대하다 잘 알다 더 내다 덜 받다 부정적 생각 가지다 또 한 우연히 택시 조기 수령 대하다 알다 경험 이처럼 납부 잘 모르다 분 많다 자세 정보 알다 생각 이처럼 주변 사람 작다 변화 만들다 노력 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 결과 여 명의 관중 앞 공연 자신감 갖다 연주 무대 대하다 두려움 신나다 즐기다 마음 공연 공연 통하다 생각 갖다 포기 믿다 끝 노력 해내다 직접 느끼다 이러하다 점 인생 모토 포기 근성 기르다 </t>
+          <t xml:space="preserve">대인관계 따르다 책 통하다 느끼다 그대로 하나 은행 객님 감동 전달하다 첫째 장 행복 맞다 아침 보다 간략 은행원 대하다 이야기 나오다 업무 특성 주인공 고객 친밀 힘들다 대출금 회수 부서 일하다 주인공 업무 관계 아니다 진심 다하다 고객 듣다 섬기다 고객 칭찬 받다 편지 받다 같다 이야기 보다 낳다 후 또한 나의 실적 우선 혹은 부의 크기 따르다 고객 차별 은행원 꿈꾸다 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 작다 단위 크다 단위 회로 설계 심벌 만들다 단계별 연결 한 개의 시스템 동작 특정 범위 작다 오차 계속적 발생 오차 제외 거의 회로 설계 마치다 상황 그러다 추구 위하다 오차율 퍼센트 위하다 끈질기다 고민 방법 찾다 시간 오래 걸리다 오차 발생 구조 임 알다 고 점 분석 거의 오차 없애다 방안 최종 회로 구현 </t>
+          <t xml:space="preserve">대인관계 작다 일 책임감 가지다 수행 연구실 총괄 책임자 신 선임 크다 칭찬 받다 연구실 전반 사무 환경 맡다 실습 경험 실행력 근면성 조 직원 관계 대하다 더 배우다 발전 기회 얻다 기술 지원 업무 공 동의 발전 꾸준 노력 책임감 자세 가지다 맡다 임무 충실히 수행 </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 학생 본분 맞다 내내 열심히 공부 좋다 성적 꾸준히 유지 통하다 어떠하다 어려움 능력 발휘 묵묵히 수행 나가다 자부 </t>
+          <t xml:space="preserve">대인관계 태국 배낭여행 계획 광저우 경유 태국 가다 항공편 예매 광저우 가다 항공편 중국 항공 이용 서비스 언짢다 느끼다 이륙 정도 경과 중국 승객 항공기 내부 복도 뛰어다니다 고성 방가 일으키다 다르다 승객 주의 주다 불구 승무원 어떠하다 주의 주다 함께 대화 무리 어울리다 안전 우선 가치 생각 여객 중심 승무원 보다 항공사 대하다 신뢰 매우 떨어지다 이러하다 이유 절다 동방 항공 최악 서비스 선정 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 가장 부족 부분 거울 보다 발표 동영상 찍다 방법 개선 연습 모의 면접 강사 학우 앞 조금 미흡 논리적 발표 뒤 스터디 구성 발표 능력 개발 위하다 애써 오다 </t>
+          <t xml:space="preserve">대인관계 경험 기반 말씀드리다 인턴 매일 처음 보다 고객 전화 메신저 방식 요구 사항 듣다 해결 역할 오늘 즐기다 생각 미소 잃다 노력 결과 부서 인정받다 사원 평가 받다 입 사 후 업무 다르다 생각 슬기 사원 </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 야간 학교 봉사 활동 만나다 어머님 게 더 크다 가르침 주다 끈기 도전 대하다 일깨우다 기관 짜여지다 봉사 좀 더 의미 봉사 활동 찾다 중 학교 게시판 야학 접하다 주 학교 수업 주말 아르바이트 저녁 시간 꿀맛 같다 황금 휴식 시간 평소 봉사 활동 꼭 해보다 생각 막상 기회 오다 바쁘다 생활 망설이다 시간 어머님 열정적 모습 보다 과감 저녁 시간 포기 그렇다 시작하다 국어 선생님 초보 선생님 잇다 어머님 열정 보답 각종 보조 자료 이용 꼼꼼 이해 쉽다 강의 위하다 수업 위하다 이상 준비 낮 일하다 저녁 오시다 공부 어머님 모습 보다 더 열심히 힘 생기다 경험 통하다 자신 이의 기쁨 희망 이유 사실 너무나 감사 세상 가장 소중 선물 받다 생각 마음 나약 해지다 그때 생각 마음 다 잡다 어머님 열정 생각 마음속 깊이 따뜻 느껴지다 </t>
+          <t xml:space="preserve">대인관계 닿다 친구 과의 관계 회복 드라마 같다 기적 은 점차 메다 티 행동 표정 밝아지다 모습 발견 부모님 관심 가지다 노력 기울이다 학생 처음 교감 선생님 감사 받으다 학생 글로벌 시대 맞다 사고 형성 적극적 행동 옮기다 저의 사고 적극성 바탕 국내외 고객 과의 진실 소통 하나 은행 고객 감동 실현 사원 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 장교 군 복무 시절 신뢰 얻다 방법 깨닫다 노력 소위 전입 후 인수인계 받다 상태 제대로 업무 수행 힘들다 직속 상관 중대장 실수 대하다 민감 동안 벌다 질책 받다 평소 긍정적 심성 가지다 의기소침 자신 먼저 생각 이러하다 노력 하나 퇴근 후 중대 본부 남다 끊임없이 업무 메뉴 얼 숙지 선배 장교 업무 방법 배우다 </t>
+          <t xml:space="preserve">대인관계 마을 민원 병 군 복무 특수 지역 주민 기타 출입자 입 퇴촌 시 민원실 오다 신고 주민 응대 항상 웃다 얼굴 싹싹 주민 간부 줄곧 칭찬 받다 </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 교시 날 항상 전 등교 정문 공학 관 앞 선거 운동 강의 비다 시간 시간 선거 홍보물 배포 그리고 선거 본부 막내 청소 설거지 도맡다 안과 밖 최선 다하다 </t>
+          <t xml:space="preserve">대인관계 설계 과목 회피 이수 전공 프로젝트 통하다 문제 끈기 해결 능력 기르다 또 팀 분열 의견 충돌 겪다 소통 법 배우다 양보 이해 바탕 팀워크 만들다 방법 알다 회로 반도체 분야 흥미 느끼다 꾸준히 준비 오다 이러하다 역량 꼼꼼 성격 발판 반도체 사이클 하락 끄떡없다 세계적 종합 반도체 회사 거듭나다 혁신적 반도체 생산 해내다 엔지니어 </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 대학 시절 교량 대하다 흥미 바탕 기초 공학 꾸준히 공부 결과 교내 장학금 수혜 내내 기숙사 생활 성과 거두다 </t>
+          <t xml:space="preserve">대인관계 저의 배우다 진지 태도 가깝다 다가가다 노력 보다 친구 공부 도와주다 시작 질문 답변 통하다 친구 복 습 모르다 부분 해결 노력 끝 평소 수능 잘 보다 원하다 학교 입학 과정 거치다 삶 교훈 배우다 포기 끈기 인내 배우다 둘 혼자 힘들다 주위 물어보다 같이 더 일 쉽다 끈기 호기심 그리다 협동심 발휘 </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 결과 시간 끝 스프링클러 설치 완성 건조 날씨 물 공급 하여 출하 시 버섯 크기 무게 정도 늘어나다 품질 생산량 높이다 </t>
+          <t xml:space="preserve">대인관계 인하다 호주 어학연수 만난 스위스 친구 한국 여행 오다 찾아오다 만나다 인연 중함 잘 보여주다 예 다르다 사람 마음 끊임없이 이해 공감 노력 현대 중공업 입사 더 크다 빛 발하다 생각 업무 수행 동기 혹은 선배 후배 배려 공감 통하다 시너지 효과 통하다 현대 중공업 꼭 필요 사람 </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 강의 계획서 보다 온라인 강의 시간 현장 강의 시간 듣다 부담감 앞서다 출석률 목표 프로그램 적극적 임하다 시간 거리 수업 장소 에어컨 열악 환경 꽉 차다 수업 포기 순간 </t>
+          <t xml:space="preserve">대인관계 은행 인턴 활동 통하다 정직 과 배려 가치관 형성 실명 가깝다 시력 잃다 할머님 맞춤 서비스 통하다 고객 만족 실천 적이 어느 낳다 할머니 통장 종이 영수증 장 들다 영업점 문 더듬거리다 방문 사회봉사 활동 후 생활비 받다 할머님 늘다 당월 돈 입금 안 같다 걱정 창구 계장 확인 보다 결과 다음 달 들어오다 돈 제외 돈 다 입금 입금 시스템 모르다 할머님 여전히 걱정 지점 떠나다 문제 없다다 고객 돌려보내다 과외 아르바이트 돈 입금 안 전전긍긍 적이 마음 더 잘 이해 그래서 고객 먼저 당월 생활비 다음 달 들어오다 패턴 설명 그다음 눈 잘 띄다 형광펜 들다 영수증 적히다 금액 날짜 통장 비교 가다 하나하나 읽다 확인 시키다 정 직함 과 배려 심 을 바탕 할머님 맞춤 서비스 제공 도움 뿌듯 이러하다 경험 우리은행 신뢰성 서비스 제공 도움 생각 </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 공동 실험실 습관 근로 영역 생각 실험 기기 통하다 나오다 데이터 분석 경험 적이 대학교 학년 용돈 벌다 위하다 교내 근로 그저 공대 우대 말 공동 실험실 습관 근로 장소 신청 실험관 처음 들어가다 작 창문 통하다 보다 현미경 점차 관심 가다 시작 처음 주로 사무실 실험실 청소 실험 기기 예약 관리 택배 오다 샘플 정리 실험실 열쇠 관리 중요 업무 맡다 선생님 담당 실험실 고분 능 질량분석기 적외선 분광기 맡다 기기 모두 고가 여 청소 기기 커튼 열다 창문 열다 주의 필요 특히 적외선 분광기 당시 배우다 선 결정학 전공 과목 다루다 터다 관심 가게 전공 주요 내용 아니다 예 드다 실험 기기 하나 책 보다 실제로 접하다 신기 선생님 여쭈다 선생님 서다 어렵다 직접 해보 방법 가르치다 처음 시편 만들다 정도 선생님 설정 조건 실험 결과 얻다 분석 실험 계속 진행 정확 분석 위하다 조건 어떻다 맞추다 알다 미지 재료 분석 자연히 재료 공학 관심 가게 실험 통하다 얻다 흥미 느끼다 공부 지루 이해 빠르다 이전 배우다 알다 가다 과목 복습 그저 시험 위하다 공부 호기심 충족 위하다 공부 </t>
+          <t xml:space="preserve">대인관계 미얀마 봉사 작사 작곡 대학 가요제 출전 활동 다양 분야 사람 협력 또 경험 통하다 얻다 넓히다 견문 공통 관심사 대화 유도 돈독 관계 유지 제품 완성 연관 공정 잘 연결 최상 결과 도출 각자 공정 목표 서로 자신 공정 목표 주장 보다 전체 적인 목표 멀다 </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 영어 실력 향상 넓다 세상 보다 위하다 대학 시절 동안 아르바이트 모으다 돈 호주 워킹 홀 리 데이 떠나다 간 영어 학원 수업 듣다 레스토랑 웨이트리스 일하다 호주 다양 문화 체험 커다 비자 알다 대도시 이외 농장 동안 일하다 조건 호주 더 비자 평온 여유 호주 매력 빠지다 세 커다 비자 얻다 위하다 랜드 토마토 농장 떠나다 농장 도착 뉴 랜드 태국 브라질 프랑스 전 세계 오다 젊은이 토마토 농장 팀 토마토 따다 그날 수익 균등 배분 슈퍼 바이저 토마토 따다 커다랗다 트랙터 이용 다 함께 따다 개인별 따다 더 효율적 적극적 빠르다 행 동의 저 반하다 친구 때로는 따다 양 먹다 양 더 많다 따다 속도 느리다 갈등 처음 그저 빨리 독촉 과의 관계 좀처럼 나아지다 기미 보이다 그래서 주말 술 먹다 얘기 하면서 결과 과정 중요 여기다 생활 방식 대하다 듣다 친구 추구 목표 대하다 듣다 지금 쫓아오다 모두 목표 불확실 이 따라오다 과정 즐겁다 살아오다 느끼다 지나오다 삶 반성 남 시선 신경 쓰다 자신 오늘 하루 행복 후회 없이 보내다 위하다 노력 </t>
+          <t xml:space="preserve">대인관계 이러다 선 후행 공정 간의 중재 현장 사무실 중재 중요 생각 현장 사무실 연결고리 목소리 만들다 만들다 기계 윤활유 삐걱 소리 나다 인간 사이 소통 윤활유 많다 트러블 생기다 인간 윤활 재 생산 라인 활력 더 </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 시간 무의미 보내다 일 찾다 헤매다 서비스 센터 직원 차량 닦다 시작 </t>
+          <t xml:space="preserve">대인관계 이르다 소통 능력 세심 사람 대하다 소통 의미 사람 마음 추측 직접 사람 말 듣다 공감 의미 통하다 대인 관계 힘들다 친구 저의 시간 빌리다 업무 힘들다 손 빌리다 가정환경 어렵다 친구 금전 도움 주다 선택 기로 고민 조언 또 한 과정 사소 일 약속 기억 메모 신경 쓰다 노력 결과 과 대표 동아리 연합회 분과장 졸업 준비 위원회 위원장 그리다 교내 최대 규모 야구 동아리 감독 맡다 대학 생활 가장 크다 자산 폭넓다 인간관계 쌓다 이러하다 소통 능력 세심 생활 건강 대표 얼굴 거래처 신뢰 쌓다 신뢰 바탕 인간 관계 맺다 관계 유지 힘쓰다 </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 몸 마음 만신창이 언젠가 이 암벽 정복 하리다 다짐 </t>
+          <t xml:space="preserve">대인관계 그렇다 한자 한글 매우 많이 혼용 독해 자체 불가능 문제 어떻다 까다 고민 중국인 유학생 도움 받다 좋다 생각 다르다 조 보통 조 과제 수행 중국인 유학생 의사소통 힘들다 유학생 배제 경우 많다 중국인 유학생 도움 받다 과제 성공적 수행 학점 받다 이러하다 경험 바탕 쓸모없다 사람 혹은 물건 가능성 역량 찾아내다 시각 기르다 경험 영업 관리자 채널 관계자 분 최고 역량 발휘 최선 다하다 </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 후 절다 봉사 활동 연장 신청 여름 방학 동안 계속 봉사 활동 그리고 도시락 배달 복지 회관 일 돕다 진정 봉사 의미 대하다 생각 계기 </t>
+          <t xml:space="preserve">대인관계 어리다 지구 환경 보전 대하다 관심 많다 어린이 점차 크다 가다 환경 줄다 고마움 잊다 살다 같다 환경 대한 공모전 해보다 결심 팀 결성 모두 환경 관심 많다 학생 모으다 마음 잘 맞다 참여율 좋다 팀장 동생 잘 따르다 얼마 지나다 예상 난관 부딪히다 모두 학교 중간고사 준비 기간 아르바이트 팀원 눈치 보다 한명 일 미루다 시작 처음 팀원 미루다 과제 혼자 해결 팀장 헤이 해지 팀 분위기 그냥 두다 없다다 판단 이후 팀원 제자리 돌리다 엄격 보다 같이 결과 확신 믿다 달라다 팀원 진심 다하다 부탁 팀원 한명 명 추스르다 생산적 방향 이끌다 나가다 최선 다하다 이후 팀원 모두 제자리 돌아오다 각자 임무 수행 한국 소비자 업무 협회 개최 환경부 후원 공모 전 소비자 에코 인식 소비 촉진 방안 대하다 아이디어 출품 팀원 생각 모으다 힘들다 팀장 의견 수렴 선택 더 낫다 아이디어 도출 노력 결과 역시 저의 예상 최고 팀워크 발휘 결국 본선 진출 최종 발표 독창적 아이디어 열정 인정받다 대상 수상 고생 팀원 해내다 성취감 눈물 나다 그때 포기 제출 의의 두다 생각 포기 팀원 끝 이끌다 갈다 대하다 보람 느끼다 행복 자신 적극적 주변 사람 이끌다 용기 실천 진정 리더십 임 알다 </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 기회 적극적 찾아가다 생각 또한 경험 통하다 책임감 적극적 자세 행동 실무 경험 기회 얻다 학년 소재 부품 생산 주간 실무 능력 키우다 사회생활 방법 배우다 좋다 기회 생각 실습 특히 주력 산화 그리하다 핀 실험 관심 많다 연구원 신뢰 믿음 보여드리다 위하다 다음 같다 노력 첫째 평소 출근 시간 더 일찍 일어 출근 동안 연구실 청소 도맡다 실험 연구가 늦다 까다 이어지다 뒷정리 어렵다 아침 먼저 오다 기구 흘리다 시료 정리 둘 현장 계신 분 공정 계획 나다 납기 관리 표 전달 업무 필요 서류 재빨리 가지다 다 드리다 결과 성실 인정받다 연구소 산화 그리하다 핀 제작 과정 공정 흐름 이해 이처럼 제가 경험 실습 전공 지식 칼 텍스 기회 적극적 찾다 새롭다 가능성 창출 인재 </t>
+          <t xml:space="preserve">대인관계 절다 새 인간관계 형성 시 상대방 먼저 낮추다 다가가다 거부감 없이 빠르다 어울리다 또래 학년 나이 많다 편입생 적극 동아리 가입 먼저 낮추다 나이 어리다 선배 모시다 원만 관계 만들다 다양 전공의 이 알다 어울리다 소비자 정보학 복수 전공 하면서 부족 전공 기초 지식 학과 대하다 이해 높이다 조 활동 주어지다 알다 다소 부족 먼저 적극적 참여 모습 보여주다 원만 분위기 형성 먼저 나서다 많다 이 가깝다 도움 빠르다 시간 새롭다 학과 적응 </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 동안 열정 동아리 심부름 자처 어떠다 조직 활동 살짝 발 담그다 실제 발 뛰다 경험 더 많다 얻다 배우다 생각 열정 행동 옮기다 실천력 묵묵히 전략 실행 성 실함 은 제 무기 동아리 임무 프로그램 구상 기획 능동적 태도 기업 연계 대학생 프로그램 을 기획 </t>
+          <t xml:space="preserve">대인관계 다양 대외 활동 스스로 성장 기회 생각 경험 노력 리더십 캠프 농촌 봉사 활동 운동 모임 활동 어리다 공부 잘하다 안일 생각 가지다 다양 단체 활동 봉사 활동 경험 매우 크다 잘못 생각 대외 활동 다양 사람 과의 소통 통하다 저의 생각 한층 더 성숙 깊어지다 느끼다 최근 농촌 봉사 활동 진행 좋다 일 함께 기쁨 나누다 배우다 힘들다 일 함께 힘 합치다 극복 배우다 이러하다 대외 활동 통하다 협동심 배우다 더불다 살아가다 살아가다 배우다 한국 조폐 공사 서다 협동심 통하다 힘들다 어렵다 일 함께 힘 합치다 목표 향하다 나아가다 </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 일 열심히 일하 일하다 분 좋다 관계 유지 </t>
+          <t xml:space="preserve">대인관계 제가 가지다 책임감 통하다 갈등 극복 경험 학창 시절 집단 일원 혹 리더 책임감 가지다 순간 많이 특히 대학 집행부 경험 책임감 한층 더 성숙 계기 인원 많다 과 특성 상 학과 행사 실시 장소 정하다 집행 부원 끼다 의견 마찰 생기다 적이 과정 시험 기간 명의 집행부 모두 모이다 의논 어렵다 우선 부원 의견 적극적 듣다 후 식사 시간 이용 다 같이 모이다 모두 한자리 모이다 소통 오해 쌓이다 부분 확인 이후 오해 푸다 화해 자리 마련 서로 의견 충족 수용 장소 한식 뷔페 빌리다 새 아이디어 제시 결과 학생 맛있다 밥 술 함께 공하 많다 학생 밥 먹다 후 또 이동 장소 옮기다 후 뒷 풀이 진행 과정 단축 점 학생 만족도 최대 이끌다 어다 주장 조합 과정 조금 복잡 결과 최고 충분 배려 대화 통하다 최선 방향 화합 이끌어내다 믿다 </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 성실 확실 일 처리 더 가르치다 인턴 이 </t>
+          <t xml:space="preserve">대인관계 겨울 방학 신입생 프로그램 참여 시작하다 계기 선생님 해보다 꿈 아직 학교 적응 신입생 주자 의의 옛날 경험 떠오르다 막 상 대학 생활 뒤돌아보다 처음 학년 어떻다 환경 만나다 가다 대학 생활 결정 도 라 생각 가장 중요 시기 메다 토 아이 올바르다 방향 나아가다 함께 청춘 여 포기 말다 도전 팀 명 걸다 저의 대학 생활 경험 살리다 대부분 저처럼 고민 많다 신입생 후배 친근 진실 어리다 충고 다가가다 </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 달 동안 주말 아침 프로그램 참여 단잠 포기 성실 교육 참여 </t>
+          <t xml:space="preserve">대인관계 사람 사귀다 정성 강조 할아버지 덕분 진실 마음 인연 잇다 가야 함 배우다 대외 활동 만나다 지인 의리 고 평가 휴대폰 저장 여 명의 사람 모두 정성 대하다 생각 작다 인연 소홀히 소중히 생각 마음 지금 의리 살아가다 친절 사람 감동 최고 인간적 매력 생각 전문적 금융 지식 바탕 진정 고객 섬기다 최고 영업 실적 이어지다 생각 한국인 친절 은행 아시아 글로벌 은행 도약 역시 친절 기반 영업 실적 신화 만들다 최연소 행장 </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 어리다 시절 위치 은혜 집 곳 보내다 은혜 집 은 독거 노인 장애 가지다 사람 같이 삶 살아가다 도움 필요 사회적 약자 보살피다 양로원 시내 멀리 떨어지다 산 속 위치 학교 등교 위하다 매일 같이 이상 걷다 다니다 학교 돌아오다 뒤 농장 일 겸업 은혜 집 을 위 작다 손길 농장 일 돕다 부모님 곁 할머니 할아버지 장애인 꾸준히 돕다 지내다 </t>
+          <t xml:space="preserve">대인관계 채용 이유 금융 상품 경험 고객 만족 목표 서비스 정신 파트 타임 일 통하다 얻다 수입 청약 저축 펀드 적금 은행 다양 금융 상품 포트폴리오 구성 체험 주변 지인 사회 초년생 추천 이러하다 경험 미래 고객 금융 상품 안내 크다 도움 선배 치킨 집 오픈 주말 홀 고객 응대 배달 돕다 치킨 식다 환불 달라다 치키다 색 어둡다 다시 배달 요구 고객 불만 공감 즉시 사과 드리고 신규 고객 장기 고객 모시다 고객 요구 사항 언제나 친절 응대 보온 포장 팩 개선 빠르다 지름길 노선 연구 배달 고객 만족도 눈 보이다 시작 경쟁 업체 친절 배달 빠르다 나다 매출 증가 불만 고객 각종 진상 고객 줄다 이러하다 저의 경험 고객 만족 서비스 역량 국민 은행 미션 고객 감동 크다 역할 여기다 지원 </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 이러다 팀 도움 방해 생각 듣다 바로 날 제안서 작성 끝나다 연구실 밤 새다 마음먹다 논문 분석 모르다 내용 시간 오래 걸리다 일일이 찾아가다 표 정리 하루하루 주어지다 일 모두 완수 결국 연구실 연구 과제 수행 연구실 선정 쾌거 이루다 </t>
+          <t xml:space="preserve">대인관계 대구 열리다 세계 육상 선수권 대회 선수단 통역 담당 성인 경기 나서다 라 선수 각별 사이 유명 선수 겸손 배 배우다 점 많다 친구 개인 시간 할애 한국 유명 명소 유명 음식 안내 하루 일정 끝나다 선수 기사 사진 좋다 글 모으다 번역 함께 담다 작업 마지막 날 개인적 준비 선물 전하다 너무 구하다 자료 지금 보다 오다 통역사 칭찬 준비 선물 받다 기뻐하다 선수 보다 스스로 뿌듯 감동 후 지금 도 제가 통역 담당 선수 포함 많다 선수 연락 오다 감동 관리 아니다 진심 대하다 일어나다 생각 일방적 감동 이야기 아니다 양방향 소통 즉 제가 경험 서로 간 감동 주고받다 아름답다 과정 속 참되다 고객 감동 보다 </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 지각 결석 없이 성실 질문 두려워하다 열정적 수업 참여 덕분 어렵다 기본 연산 구현 더 나아 실제 제공 계산기 모델 기능 재현 위하다 노력 계산기 구현 보다 전 모르다 메모리 관련 기능 퍼센트 기능 관련 지식 정보 학습 직접 코드 작성 부딪히다 보다 결과 루트 퍼센트 연속 계산 메모리 클리어 리드 심지어 계산 기의 레이 아웃 재현 </t>
+          <t xml:space="preserve">대인관계 이전 기수 학생 아쉬움 토로 부분 인솔 교수님 소중 경험 현직 자 과의 만남 프로그램 반영 부탁드리다 그리고 회사 홍보 팀 담당 직원 초대 주신 삼성전자 하노이 법인 장님 최대한 뜻 피력 메일 전화 부탁 드리다 다행 팀 방문 날 부서 책임자 급 직원 시간 어다 법인 장님 서도 흔쾌히 허락 현직 자 경험 자세 직무 이야기 책 배우다 말로 듣다 내용 훨씬 양질 정보 탐방 참가 학생 안내 주신 책임자 분 현지 법인 장님 모두 수정 프로그램 흡족 해하다 제안 크다 칭찬 </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 주어지다 주제 양측 입장 모두 준비 총 입장 완벽 준비 친구 박학 다식 준비 오다 자신 분량 오다 약속 시간 늦다 게으르다 모습 보이다 늘 분량 다하다 출처 표시 다르다 자료 조사 함께 필요 팜플렛 자료 만들다 </t>
+          <t xml:space="preserve">대인관계 이러하다 꿈 이루다 제가 아모레 퍼시픽 선택 계기 안식년 신 교수님 수업 주신 선배 덕분 아모레 퍼시픽 연구 선배 학기 걸치다 수업 진행하다 과목 듣다 선배 서다 틈틈이 화 공과 배우다 들이다 게 화장품 연구 사용 가르치다 자신 다니다 회사 이야기 즐겁다 주시 선배 모습 보다 언젠가 선배 같다 회사 생활 생각 아모레 퍼시픽 하루 시작 잠들다 전 항상 삶 함께 아침 저녁 사람 하루하루 보내다 사용 제품 내가 다니다 회사 나의 팀 만들다 자부심 가지다 말하다 일 보람차다 일 이처럼 항상 삶 함께 아모레 퍼시픽 꿈 이루다 최고 선택 </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 고등학생 별명 늘 주위 살피다 망 보다 쉬다 새 없이 굴 팔다 성 실함 대명 사인 닮다 붙여지다 별명 </t>
+          <t xml:space="preserve">대인관계 어리다 터 부모님 주변 사람 잘 배려 가르침 받다 어떠하다 일 혼자 이익 생각 주변 사람 도움 일 더 선호 행동 인하다 남 피해 받다 꺼리다 혼자 생각 아니다 주변 사람 내가 속 조직 전체적 이익 분위기 우선적 생각 결국 일 생각 대학교 과 학생회 활동 대외 활동 팀장 항상 어떻다 과 도움 어떻다 내가 속 팀 잘 이끌다 갈다 먼저 생각 결과 주변 사람 사람 대하다 긍정적 이미지 심다 덕분 학년 과 대표 및 대학원 대표 추천 받다 활동 아모레 퍼시픽 일 가지다 장점 어떻다 활용 팀원 도움 고민 회사 필요 인재 노력 </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 석사 과정 진학 후 일 체력 바탕 생각 꾸준히 유도 어렵다 힘들다 운동 끈기 가지다 꾸준히 노력 오다 결과 현재 유단자 </t>
+          <t xml:space="preserve">대인관계 졸업 프로젝트 진행 일 조 시작 다툼 잦다 서로 역할 겹치다 있었다 일 양 차이 불만 많다 조장 서로 장점 잘 모르다 서로 원하다 잘 몰르다 생기다 다툼 많다 생각 제일 먼저 회식 자리 열다 서로 대하다 알다 기회 만들다 서로 대하다 알다 자연 양보 모습 발견 다음 모두 스케줄 시간표 모으다 빌다 시간 프로젝트 진행 그렇다 일하다 양 대하다 불만 줄어들다 </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 굳다 다짐 불구 동역학 유체 역학 전공 과목 모형 개발 위하다 코딩 시행착오 힘들다 기상 시나리오 환경 조건 요인 많다 수차례 모형 돌리다 최소 시간 걸리다 모형 시뮬레이션 도출 결과 재 분석 밤 새우다 일 잦다 </t>
+          <t xml:space="preserve">대인관계 참모 군수 장교 복무 소속 중대 갈등 겪다 경험 규정 원칙 따르다 일 추진 반복 업무 타성 젖다 업무 수행 부서 내 행정관 사이 마찰 자주 발생 설상 가상 영향 중대 관계 미치다 업무 원활 행정관 소통 부족 업무 처리 비효율 중대 교육 훈련 무시 업무 진행 부대원 지원 받다 상황 상황 개선 상급 자인 중대장 자문 구하 부대 운용 계획 업무 우선순위 정하다 보고 결산 매뉴얼 정하다 정보 공유 후 역할 분담 또 한 업무 이외 자리 마련 작다 선물 그동안 노력 감사 표현 이러하다 노력 업무 성과 자연 오르다 부서 평가 </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 간 커리큘럼 목표 달성 방법 정리 자료 사람 설득 팀원 겨우 구하다 뒤 매이다 시간 부족 심화 전공 공부 함께 교과 과정 함께 병행 이 이기다 내야 발전 믿다 이후 엑셀 자료 가공 영어 논문 작성 각자 강점 살리다 어려움 하나 이기다 </t>
+          <t xml:space="preserve">대인관계 학생 시절 컨벤션 분야 통역 요원 활동 매너 고객 중심 마인드 함양 그래서 사람 서비스 제공 감사 고객 모습 보다 업무 희열 느끼다 열정적 포럼 이드 및 의전 요원 일하다 당시 국제 행사 대하다 이해도 라 동료 친하다 우선순위 생각 진행 요원 찾아가다 소개 악수 청하다 정성 어리다 태도 이후 동료 업무 분위기 행사 성공적 종료 크다 이바지 </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 시프트 명령 거대 배열 불러오다 단순 작업 상당 인내심 요구 제일 어렵다 점 외국인 의사소통 어려움 인식 </t>
+          <t xml:space="preserve">대인관계 의전 활동 시작 응대 귀빈 전문가 적인 매너 갖추다 회사 세심 배려 받다 느낌 들다 생각 매너 소 양 쌓다 오다 역량 바탕 손님 내방 시 배려 심 듬뿍 느끼다 최선 다하다 </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 대학교 산업 교육원 동안 근로 장학생 근무 적이 맡다 임무 전산실 컴퓨터 관리 조교 교수님 강의 준비 </t>
+          <t xml:space="preserve">대인관계 가족 최선 다하다 아버지 자식 헌신 어머니 계시다 가족 늘 화목 화목 분위기 정서 적인 안정 주다 적극적 긍정적 사람 성장 성격 장점 항상 많다 다양 사람 관계 맺다 </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 작년 겨울 수원 청소년 쉼터 가출 청소년 상대 검정 고시 과외 봉사 활동 사회 복지 사인 친구 통하다 친구 검정고시 학교 다시 돌아가다 얘기 듣다 만남 선생님 서다 아이 단기 봉사자 대하다 선 안 좋다 시각 가지다 말씀하다 이러하다 시각 해소 위하다 시험 합격 함께 믿음 아이 행동 대하다 지적 가르치다 경청 공감 친하다 위하다 노력 결과 쉼터 공부 분위기 검정고시 준비 학생 늘어나다 현재 아이 학교 돌아가다 아이 검정 고시 합격 위하다 주말 열심히 공부 </t>
+          <t xml:space="preserve">대인관계 회사 중견 자리 위치 선배 들다 과 후배 사이 잇다 다리 역할 인 훌륭 업무 수행 능력 갖추다 아시아 선도 글로벌 기업 만들다 케미칼 꼭 필요 사람 쓸모 사람 </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 성적 낮다 학생 가르치다 멘토링 프로그램 월 참여 일주일 후배 공부 가르치다 전기 공학 기본 전기 회로 전기 자기학 위주 가르치다 재미없다 어렵다 과목 기본 쌓다 절대 고급 과목 관하다 실력 쌓다 노하우 지식 쉽다 후배 전달 위하다 또한 많다 복습 이후 전기 기기 제어 공학 전기 전력 필요 지식 가르치다 </t>
+          <t xml:space="preserve">대인관계 부모님 사랑받다 자라다 사실 미안 살다 용기 주다 친구 이야기 잘 들어주다 쳐다보다 학생 매일 같이 찾아가다 스스로 험담 주말 하루 종일 쫓아다니다 담배 피지 말다 밥 먹다 라 잔소리 시작하다 자해 병원 실려가다 연락 받다 밤새 간호 봉사 활동 끝나다 달 여학생 처음 이름 궁금하다 제가 열심히 필기 수학 문제 집 보다 시작 </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 늘 원하다 일 늘다 가르침 모토 물질적 풍요 자아 성취 더 크다 가치 두다 이 이루다 위하다 끊임없이 변화 노력 대학 졸업 후 전문 성과 지식 능력 함양 위하다 대학교 편입 결심 이 스스로 이루다 위하다 합 업과 아르바이트 병행 중반 보내다 </t>
+          <t xml:space="preserve">대인관계 농협 근무 당시 재 방문 고객 얼굴 기억 일 지연 보다 최초 방문 고객 리스트 작성 꼼꼼히 기록하다 그리고 이후 재 방문 얼굴 이름 특징 기억 고객 리스트 필요 사항 확인 빠르다 서비스 제공 농협 전산망 사태 많다 고객 찾아오다 항의 사고 네거티브 마인드 가지다 고객 불만 일일이 듣다 드리고 주요 고객 직접 전화 드리다 죄송 사과 드리다 믿다 기다리다 달라다 설득 </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 무대 경험 통하다 문제 어려움 발생 단계별 준비 통하다 실천 해결 있음 느끼다 </t>
+          <t xml:space="preserve">대인관계 저의 다양 경험 입사 후 연금 재무 대하다 지식 결합 다양 고객 더 잘 이해 더 적합 국민 연금 가입 유도 시너지 효과 내다 생각 </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 현실 안주 발전 위하다 꾸준히 노력 삶 추구 중학교 시절 고등학교 진학 결정 문제 고민 당시 거주 시골 중학교 성적 상위권 있었다 성적 만족 주변 고등 학교 진학 더 발전 위하다 성적 우수 도시 고등 학교 진학 고등학교 시험 저조 성적 받다 좌절 꾸준히 노력 결과 상위 진입 경험 발전 위하다 꾸준히 노력 달성 자세 중요성 배우다 이후 이러하다 자세 유지 위하다 노력 </t>
+          <t xml:space="preserve">대인관계 크다 작다 의미 찾다 노력 결과 전공 대하다 애정 노력 돈독 인간관계 형성 </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 안전 관리 최선 다하다 건설 회사 존재 한 더 이상 무사고 날짜 세다 안전 대하다 중요성 널리 강조 현장 아침 제일 먼저 열고 저녁 마지막 남다 점검 신입 관리자 </t>
+          <t xml:space="preserve">대인관계 전자 전기 공학 배우다 많다 팀 프로젝트 거의 프로젝트 조장 서로 의견 다르다 중재 팀 공동 목표 달성 노력 이번 학기 종합 설계 조장 맡다 조원 함께 설계 진행 조원 전공 분야 능력 뛰어나다 설계 대하다 책임감 부족 모이다 날짜 잡다 개인 임무 분담 나누다 조원 책임감 느끼다 설계 진행 이끌다 조원 열심히 노력 끝 지나다 발표 가장 빠르다 진행 속도 준비성 교수님 인정받다 </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 그때 전체 진행 차질 제때 결과 도출 역할 생각 다르다 조원 더 일하다 시간 더 늦다 자다 불평 성실 노력 입사 후 직위 상관없이 맡다 임무 끝 완수 책임 엔지니어 </t>
+          <t xml:space="preserve">대인관계 절다 사람 만나다 좋아하다 동기 선배 과도 자주 어울리다 학생 탓 동아리 선배 공과 대학 학생 회장 출마 선거 도우미 구실 </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 사모님 서다 저의 최선 다하다 모습 지키다 보시다 어다 디다 가다 이렇다 최선 다하다 일 열심히 회사 들어가다 주위 사람 사랑 받다 그다 자신 보장 고 계기 통하다 아무리 지치다 힘들다 일 닥치다 어떻다 해내다 저의 끈기 열정 확인 </t>
+          <t xml:space="preserve">대인관계 그리다 중 고등학교 실장 간 하면서 자신 타인 희생 배려 성품 형성 지역 아동 센터 꾸준히 봉사 타인 지도 보살피다 리더십 배우다 평소 책임감 말 많이 들어오다 입사 후 신뢰 받다 맨 </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 대부분 저학년 스탭 통틀다 나이 가장 많다 바쁘다 상황 자신 막내 생각 몸 사리다 다르다 학생 몸 쓰다 일 주저 낳다 의자 옮기다 세팅 테이블 정리 몸 쓰다 일 시작하다 마지막 날 토크 콘서트 후 바닥 붙다 홍보 포스터 떼다 역할 먼저 서다 적절 홍보 활동 기획 프로그램 역대 급 학생 참여율 높다 토크 콘서트 무사히 진행 바쁘다 상황 적극적 활동 점 인정받다 뒤풀이 회의 선정 힘들다 상황 일 맡다 이렇다 최선 다하다 좋다 결과 이루다 예금 보험 공사 주인 의식 가지다 맡다 일 </t>
+          <t xml:space="preserve">대인관계 특히 물질 전달 과목 흡수 탑 설계 수행 팀원 간 갈등 소통 원활히 해결 경험 당시 계절 학기 수업 인하다 회의 참석 팀원 많다 인하다 팀 사기 저하 갈등 발생 따르다 팀원 대화 각자 시간 맞다 역 재분배 및 회의 시간 조정 갈등 해결 </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 본분 충실 열심히 살다 기업 간 근로자 일하다 자수성가 이루다 아버지 서다 근면 성실 강조 말씀 자주 그러다 아버지 영향 아래 학창 시절 받다 개근상 은 근면 성실 밑거름 지금 도 대학 생활 수업 지각 결석 적이 정도 성실 생활 학생 본분 공부 생각 학업 충실 우선순위 정하다 계획 세우다 습관 기폭제 평점 높다 성적 유지 성적 우수 장학금 수여 점 학교생활 적극 참여 게을리 결과 생각 </t>
+          <t xml:space="preserve">대인관계 수년 간의 서비스 직 아르바이트 경험 봉사 활동 인하다 사람 마음 사다 만족 주다 일 점차 매력 느끼다 작다 서비스 하나하나 고객 크다 감동 주다 다시 찾다 대하다 보람 느끼다 그렇다 서비스 직 꿈 이제 이루다 지원 </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 프로젝트 많다 연구실 따로 공부 시간 주어지다 학교 집이 반 거리 등하교 시간 이용 공부 지하철 막차 타다 서서 가다 그날 배우다 내용 복습 또 공부 내용 프로젝트 반영 이론적 근거 뒷받침 과목 받다 최종 목표 못 미치다 한 클래스 줄다 수리 통계학 오다 시뮬레이션 수업 받다 졸업 시험 면제 받다 만족 결과 졸업 </t>
+          <t xml:space="preserve">대인관계 새 친구 사귀다 목적 절다 축구 동아리 만들다 팀원 모집 시작하다 배척 우려 달리 축구 세계인 언어 확인 정 도로 우호적 대하다 </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 대학원 학기 간 프로젝트 제안서 약 작성 적이 단기간 크다 일 한꺼번에 수행 다 보다 리더 역할 사람 필요 의견 모으다 선배 동료 추천 제가 메인 의 역할 맡다 짧다 기간 배경 지식 영역 많다 내용 힘들다 조건 하 구체적 계획 필요 생각 또 각자 일 모호 일 대하다 의욕 책임감 보이다 따르다 제안서 항목 중요도 따르다 나누다 실행 계획 세우다 뒤 동료 각자 잘하다 일 분석 몫 할당 완성되다 항목 모으다 뒤 사람 문투 닿다 제안서 통일감 깨지다 문제 해결 위하다 문장 통일감 다듬다 </t>
+          <t xml:space="preserve">대인관계 매달 고객 만나다 사람 심리 이해 관리 때로는 소통 넘다 사람 성향 파악 강점 기르다 회사 이익 원천 영업 업무 필 두로 사람 관계 이해 초점 맞추다 </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 방법 찾다 꾸준히 학습 결과 학년 학기 과목 만점 이러하다 경험 한계 극복 뛰어넘다 늘다 도전 정신 가지다 플라즈마 따뜻 프로페셔널 위하다 불가능 보이다 목표 스스로 설정 달성 위하다 방법 도전 끈기 필요 노력 플라즈마 발휘 </t>
+          <t xml:space="preserve">대인관계 친구 복귀 신문 발행일 며칠 남다 최대한 도움 주다 많다 부분 친구 돕다 나중 사적 자리 말하기 너무 관여 오히려 불편 느끼다 본인 업무 담당 친구 종종 그렇다 느끼다 정도 자제 달라다 요청 적이 </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 정직 솔 직함 입다 다 전산 과장 참모 직 수행 도중 부대 내부 랜 공사 사업 맡다 상급 부대 전파 사항 제대 전파 또한 해당 사업 내용 대하다 이해 제대로 기한 임박 상급 부대 실무자 금요일 오후 급하다 연락 오다 계획 다음주 월요일 전 보다 통보 받다 주말 동안 계획 급하다 세우다 후 상급 부대 보고 계획 제대로 세우다 공사 차질 생기다 상황 지휘관 보고 드리다 상황 미숙 업무 처리 대하다 질책 두렵다 그대로 지휘 보고 드리다 지휘관 상급 부대 일정 조율 및 계획 수립 차질 없이 일 마무리 만약 질책 두렵다 미 보고 및 지연 보고 일 더 커지다 정직 보고 하여 실수 만회 </t>
+          <t xml:space="preserve">대인관계 스스로 세우다 도전 역할 더 애착 느끼다 몰입 목표 이루다 조사원 경험 상대방 입장 생각 행동 진심 어리다 표현 사람 마음 움직이다 깨달음 얻다 응답자 대하다 고객 입장 관심 이해 진심 어리다 관계 유지 마케팅 전문가 도전 </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 방법 몰다 학생 최선 노력 공부 집중 최고가 노력 동안 과 수석 및 학기 전액 성적 장학금 받다 현 실적 좋다 결과 얻다 </t>
+          <t xml:space="preserve">대인관계 봉사단 목표 교육 소외 시골 지역 학생 멘토링 마을 일손 돕다 통하다 도시 생활 대학생 이웃 생각 경험 우리 봉사단 이자 대학교 대표 봉사 지역 방문 만큼 소속 학교 대하다 소속감 증가 이유 소속감 강하다 느끼다 학생 많다 조직 발전 크다 도움 </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 이상 부품 들어가다 자동차 기술 집약 체 플랜트 기술 고객 생산자 안전 중요 분야 위하다 학문적 지식 대단히 중요 생각 기본 전반적 지식 쌓다 위하다 학업 충실 학과 생산 연구실 학부 프로젝트 돕다 경험 </t>
+          <t xml:space="preserve">대인관계 살다 여름 방학 매장 아르바이트 처음 사람 어울리다 좋아하다 성격 적합 </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 활동 영향 주다 위하다 수면 줄이다 자투리 시간 최대한 활용 가끔 바쁘다 스케줄 주위 부정적 반응 포기 긍정적 마인드 가지다 꿋꿋이 진행 </t>
+          <t xml:space="preserve">대인관계 고등학교 당시 사진 부 활동 축제 기간 동안 주변 학교 치다 구들 친분 쌓다 활용 초대 친구 사진 찍다 자금 확보 대학교 늦다 나이 불구 동아리 들어가다 맏언니 역할 책임감 임원 보조 역할 맡다 주어지다 예산안 축제 비용 조정 돕다 맏언니 권위 동아리 내 갈등 완화 분위기 메이커 역할 동생 과의 일대일 상담 서로 대하다 오해 풀다 노력 </t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 자동차 하 부품 회사 물류 창고 일하다 부품 회사 수많다 전선 자르다 정리 업무 니퍼 계속 사용하다 손 아프다 길이 오차 나다 불량품 처리 특유 책임감 꼼꼼 함 일 처리 오차율 일구다 특히 야간 일하다 물류 창고 쏟아지다 잠 오다 팔 너무 아프다 강인 정신력 적응력 해내다 이처럼 고되다 아르바이트 얻다 경험 효성 건설 현장 자신 일 </t>
+          <t xml:space="preserve">대인관계 대학교 학년 창의 공학 설계 과목 발표자 자원 대중 앞 이야기 두렵다 마음 극복 발표 자로 자원 중간 발표 말 더듬다 내용 정확히 전달 저조 성적 받다 이대로 포기 마음 최종 발표 발표자 서다 팀원 양해 구하다 </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 제가 조직 항상 들어오다 말 남 한발 앞서다 성실 조직 드다 우선 시하 책임감 일 핵심적 역할 담당 교환 학생 해외 봉사 활동 참여 조직 경험 뚜렷 목표 의식 가지다 행하다 경험 바탕 장차 손해 보험 안되다 그러다 인재 </t>
+          <t xml:space="preserve">대인관계 이처럼 조직 어렵다 보이다 일 두려워하다 적극적 도전 성과 만들다 인재 </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 강남 역 아침 수업 인천 집 나오다 미리 학원 도착 성실 인정받다 회계 담당 </t>
+          <t xml:space="preserve">대인관계 철저 고객 관리 능력 성과 내다 영업 매출 목표 효과적 달성 서비스 관리 중요 인턴 꾸준 관리 고객 신뢰 쌓다 성과 내다 지름길 깨닫다 역량 발휘 주간 기업 계약 체결 매출 성과 만들다 동안 대리 돕다 가격표 계약서 사용 매뉴얼 자료 준비 담당 꼼꼼 센스 업무 처리로 대리 신뢰 얻다 주차 터 기업 직접 관리 담당 기업 관리 하면서 꾸준히 스킨십 잇다 특히 해당 산업과 유통 구조 파악 잠재적 불편 사전 차단 노력 서비스 사용 실무진 주기적 불편 건의 사항 조사 이후 영업 운영 개발 기획 측면 나누다 분석 이후 구성원 공유 개선 사항 우선순위 정하다 순차적 해결 결과 고객 빠르다 피드백 제공 신뢰 유지 영업 사원 고객 지향 마인드 꾸준 관심 꼭 필요 역량 생각 고객 사 확실히 파악 지속 가능 영업 기회 노리다 </t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 아르바이트 경험 티켓 확인 잘못하다 사소 실수 간 단 지각 없었다 맡다 업무 관하다 충실히 임하다 남자 최초 담당 업무 수행 고객 이해 좋다 도전 </t>
+          <t xml:space="preserve">대인관계 상권 분석 업무 통하다 인 사이트 도출 자영 업자 및 소 상공인 돕다 자부심 즐겁다 일하다 </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 확고 의지 함께 주간 이루어지다 하루 시간 수업 빠지다 없이 성실 참여 남다 시간 외국인 학생 어울리다 배우다 중국어 연습 특히 언어 배우다 문화 배우다 또한 중요 생각 매주 토요일 근교 여행 떠나다 </t>
+          <t xml:space="preserve">대인관계 또한 강사 서다 계산기 코드 분석 자바 공부 많다 도움 공유 폴더 공유 실제로 코드 다운 받다 공부 분 많다 후 알다 때다 뿌듯 도움 기쁘다 </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 먼저 늦잠 자다 습관 바꾸다 아침 일어나다 가벼운 러닝 뛰다 시작하다 매일 아침 일어나다 러닝 처음 힘들다 정도 후 오히려 상쾌 아침 시작 계기 체중 또한 감량 그리고 하루 최소 시간 공부 시간 가지다 일 시작 멀리하다 책 가까이 꾸준히 공부 습관 만들다 </t>
+          <t xml:space="preserve">대인관계 또한 서비스 업종 아르바이트 밝다 모습 적극적 모습 같이 근무 직원 사장님 빠르다 가깝다 그리고 짧다 기간 근무 찾아오다 단골 생기다 밝다 친화력 좋다 모습 남 좋다 인상 남다 좋다 기회 주어지다 추천 지인 늘어나다 결과 많다 경험 로봇 과학자 데니스 홍 강연 참여 통하다 성격 성장 자신 표현 수단 깨닫다 </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 실험 생기다 실수 줄이다 위하다 간결 꼼꼼 연구 노트 작성 습관 들이다 박사 서다 실험 결과 값 크다 흐름 보다 위하다 노트 자주 찾다 조건 달리하다 이전 실험 비교 쉽다 빠르다 피드백 다음 실험 계획 가능 어느덧 두꺼운 노트 채우다 남기다 후배 훌륭 참고서 박사 칭찬 </t>
+          <t xml:space="preserve">대인관계 봄 심리학 수업 과제 결성 팀 팀원 공황 장애 증세 보이다 지속 회의 불참 팀 갈등 발생 팀원 팀 내보내다 제안 공황 장애 대하다 사전 지식 팀원 공황 장애 심각 보여주다 영상 관련 사례 들려주다 입장 배려 노력 또 한 공황 장애 증상 보이다 지속 방문 안정 찾다 돕다 외출 프로젝트 회의 참여 화상 회의 주도 결과적 증상 호전 새롭다 분위기 재개 팀 프로젝트 모두 활기 불어넣다 빠르다 속도 진행 </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 퇴근 후 무료 강좌 블다 로그 통하다 업무 필요 기능 익히다 같이 인턴 학교 후배 이해 부분 배우다 이후 도움 필요 업무 적극적 지원 자연스레 다양 업무 수행 인턴 기간 끝나다 회식 자리 처음 크다 기대 안 어떠하다 업무 마다하다 적극성 놀라다 고맙다 말 듣다 </t>
+          <t xml:space="preserve">대인관계 부분 대회 기획 기획자 사이 의견 차이 토론 주제 선정 팀 찬성 반대 역할 임의 정하다 토론 진행하다 의견 주제 사전 알리다 팀 의견 종합 대진표 만들다 토론 의견 찬성 반대 역할 미리 정하다 주자 늘다 의견 다양 방향 생각 기회 주다 준비 훨씬 간단 해지다 이야기 듣다 취지 좋다 토론 참가자 중학생 참여 어려움 경험 토대 이야기 교육 봉사 프로그램 참가 느끼다 점 바탕 원하다 역할 얘기 프로그램 진행자 참여자 초점 맞추다 옳다 생각 경험 중학생 일 의욕 가지다 참여 주제 찬성 학생 반대 입장 표 활발 토론 어렵다 최종적 기획자 투표 통하다 토론 방식 결정 회의 진행 과정 가장 중요 생각 자신 의견 자유 이야기 분위기 함께 기획 기획자 의견 물어보다 참여 유도 좋다 의견 적극 반영 하여 많다 사람 동의 최상 결론 도출 다르다 기획자 동의 준비 시간 더 걸리다 주제 대하다 팀 의견 수렴 대진표 만들다 상대방 의견 장점 토론 마지막 부분 반대 입장 의견 제시 순서 추가 하여 토론 질 높이다 업무상 의사 결정 내리다 경우 경험 팀원 적극적 소통 통하다 최적 방법 해결 </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 타인 성과 비교 통하다 스스로 규정 자극 버릇 열등감 남 양 질적 많다 역량 쌓다 행복 영향 미치다 자존 낮다 최근 책 읽다 경쟁 의식 업무 역량 차원 긍정적 방향 표출 삶 자신 받아들이다 연습 </t>
+          <t xml:space="preserve">대인관계 현장 관리 기본 마케팅 영화 편성 인사 관리 업무 맡다 바쁘다 현장 발생 문제 현장 책임자 적절 고객 응대 더불다 지역 마케팅 업무 실적 관리 관리 역할 맡다 </t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 토론 잘 마치다 대진표 토론 주제 받다 낳다 후 부족 회화 실력 어렵다 주제 높다 레벨 반 속하다 상대팀 압도 또 갑작스럽다 팀 리더 맡다 잘 창피 당하다 끝나다 아니다 걱정 토론 준비 위하다 학원 수업 끝나다 후 시간 준비 캐나다 이민 정책 어렵다 주제 주어지다 영어 서로 설득 연습 꾸준히 덕분 토론장 막히다 없이 말하다 </t>
+          <t xml:space="preserve">대인관계 영화관 약 반 동안 일 웃음 서비스 고객 만족 법과 돌발 상황 한 명의 고객 잃다 노력 통하다 서비스 정신 배우다 그러다 제가 제공 서비스 고마움 느끼다 고객 보다 기쁘다 </t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 학창 시절 주어지다 학업 성실히 임하다 매 학기 장학금 받다 군 생활 저의 능력 인정받다 사단장 운전병 만기 제대 </t>
+          <t xml:space="preserve">대인관계 한번 분야 뛰어들다 최고 자리 올라가다 욕심 업무 전문 성과 고객 만족도 우선 업무 매진 </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 그때 남다 독학 관련 코드 통째로 외우다 학습 어느 정 학습 관하다 틀 잡히다 후 학교 배우다 새롭다 배우다 남 차별성 주다 그리하다 빅 데이터 학습 도전 빅 데이터 교육 과정 수강 시 빅 데이터 개념 관련 원리 이해 안 매우 힘들다 연구소 인턴 근무 라 새 빅 데이터 분석 익히다 매우 힘들다 계속 노력 안 일 없다다 판단 야근 나머지 공부 자청 부족 부분 메꾸다 또 빅 데이터 관련 세미나 학회 참석 배우다 시간 장소 가리다 빅 데이터 이해 위하다 노력 </t>
+          <t xml:space="preserve">대인관계 또한 서비스 업종 아르바이트 밝다 모습 같이 근무 직원 사장님 빠르다 가깝다 그리고 짧다 기간 근무 찾아오다 단골 생기다 결과 좋다 기회 주어지다 추천 지인 늘어나다 </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 대학 신입생 시절 뚱뚱 자신 바꾸다 위하다 동안 감량 성공 남 귀찮다 허비 시간 미래 위하다 꾸준히 노력 남 느다 차별화 경쟁력 갖다 깨닫다 꾸준 무기 삼다 영어 실력 향상 힘쓰다 </t>
+          <t xml:space="preserve">대인관계 정도 시간 은혜 집 보내다 어렵다 환경 굴복 자세 타인 희생 헌신 법 머리 아니다 몸 직접 배우다 어리다 체득 이러하다 정신 자세 학업 대인 관계 가치관 같다 삶 부분 인류애 구현 확고 신념 갖다 많다 영향 미치다 </t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 통학 시간 동안 지하철 전공 책 읽기 남 일찍 도서관 도착 늦다 자리 일어 보기 복습 배 해보다 계속 새롭다 방법 시도 방법 찾다 꾸준히 학습 결과 매 학기 성적 조금씩 꾸준히 올르다 학년 학기 과목 만점 </t>
+          <t xml:space="preserve">대인관계 애 늙은이 가다 스스로 당당 해지다 후 사람 감싸다 정신적 여유 갖다 봄 심리학 수업 과제 결성 팀 팀원 공황 장애 증세 보이다 지속 회의 불참 팀 갈등 발생 팀원 팀 내보내다 제안 공황 장애 대하다 사전 지식 팀원 공황 장애 심각 보여주다 영상 관련 사례 들려주다 입장 배려 노력 또 한 공황 장애 증상 보이다 지속 방문 안정 찾다 돕다 외출 프로젝트 회의 참여 화상 회의 주도 결과적 증상 호전 새롭다 분위기 재개 팀 프로젝트 모두 활기 불어넣다 비록 늦다 빠르다 속도 진행 갈등 상태 그룹 중재 화합 이끌다 모습 보다 확실히 성장 점 느끼다 </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 동안 도서관 집 드나들다 교수님 도면 첨삭 받다 완성도 높이다 </t>
+          <t xml:space="preserve">대인관계 한국 친구 주로 글 마케팅 블다 로그 관리 담당 고객 수요 발맞추다 백화점 고급 상점 신 상품 입다 카메라 들다 발 뛰어다니다 시장 조사 구매 맡다 신뢰 판매자 고객 관계 유지 매장 탈의실 들어가다 직접 핸드백 착용 모습 찍다 고객 정확 제품 정보 전달 노력 </t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 결과 본사 대리 이렇다 열정적 빠르다 배우다 인턴 처음 칭찬 받다 </t>
+          <t xml:space="preserve">대인관계 행정 실측 공부 아이 프린트 비용 무료 방침 고수 학생 공짜 점점 권력 남용 일 많다 잉크 갈다 끼우다 날 주 단축 처음 아이 권고 차원 금지 학교 게시판 공문 띄우다 별다르다 효과 아이 주인 의식 심다 가장 크다 취지 의견 취합 행정 실 건의 하여 용지 비슷 가격 장당 합의 보다 </t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 일단 목표 세우다 나서다 빠르다 달성 위하다 많다 정보 수집 노력 아끼다 먼저 공인 영어 성적 필요 공부 학점 은행 통하다 학사 학위 취득 위하다 시간제 수업 독 학사 시험 학점 인정 자격증 취득 컴퓨터 활용 능력 통하다 학점 은행 준비 </t>
+          <t xml:space="preserve">대인관계 찾아가다 재무 상담 서비스 기획 진행 단계 국민 주택 금융 공사 대하다 더 잘 알다 역시 주택 금융 공사 실제 업무 대하다 더 잘 이해 주택 금융 공사 찾다 국민 애로 사항 더 잘 이해 생각 그리고 부채 많다 개인 경우 주택 연금 안심 전환 대출 도움 받다 대출 이자 비롯 부채 경감 재무 건전 확보 통하다 주택 금융 공사 이미지 제고 국가 경제 안정 기여 </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 지나다 간 월 평균 가량 영화 감상 블다 로그 통하다 평론 올리다 </t>
+          <t xml:space="preserve">대인관계 진정 성과 친근감 상징 속 유쾌 추구 모습 보다 친구 붙이다 별명 이러하다 저의 모습 사람 조화 이루다 가장 크다 원동력 전공 발표 수업 한국 경제 활동 같다 팀워크 필요 활동 빛 발하다 특히 한국 경제 금융 문 팀 운영 맡다 팀원 화합 높이다 원활 커뮤니케이션 이끌다 어다 한국 경제 홍보 방안 채택 성과 만들다 </t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 검도 수련 군 제대 후 사범 수행 경험 </t>
+          <t xml:space="preserve">대인관계 글로벌 활동 아다 르 바이 잔과 오다 외국인 친구 집 초대 음식 대접 경험 이슬람교 특성 감자 심이 대접 돼지고기 먹다 문화 이해 새롭다 음식 공유 과정 통하다 우정 쌓다 또 한 함께 문화 체험 다니다 여 명의 친구 국적 취향 종교 특성 식당 섭외 여 명의 이슬람교 친구 이태원 푸드 전문점 예약 </t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 수상 번번이 실패 지속적 피드백 통하다 보강 결국 수상 이루다 주변 마일리지 걸다 끈기 높이 평가 </t>
+          <t xml:space="preserve">대인관계 원리 원칙 지키다 사소 이해관계 시 정직 최선 원칙 임하다 주변 사람 친밀감 돈독히 결과적 긍정적 자아 상 갖다 과제 수행 시 리더 역할 맡다 이러하다 생활 신념 덕분 생각 통하다 자신 이익 먼저 챙기다 먼저 대접받다 실패 상대 관점 먼저 생각 정직 태도 유지 성공적 삶 사다 생각 정직 상대방 먼저 배려 이해 관계 살짝 내려놓다 결과 항상 편 임 확신 </t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 이후 물류 및 대하다 더 깊다 공부 필요 판단 주 매일 시간 시간 무역 물류 인재 양성 과정 수료 물류 학회 매주 시간 세미나 활동 뉴스 및 신문 통하다 각종 해외 이슈 정리 </t>
+          <t xml:space="preserve">대인관계 소 모임 부흥 회장 고민 당구 대회 개최 먼저 대회 상금 참가비 당구 점수 대하다 임원 회의 통하다 결정 그리고 제휴 맺다 당구장 가다 장소 대여 관하다 이야기 나누다 당 구장 학교 앞 많다 인원 찾다 곳 당구 대회 순조 개최 통째 빌리다 그렇다 일반 고객 피해 주다 순 포함 소 모임 임원 당구장 손님 많다 적다 파악 그리고 가장 손님 많이 몰리다 시간 피하다 사장님 입장 손님 가장 적 대회 개최 흔쾌히 허락 주어지다 시간대 잘 파악 체계적 당구 대회 성공적 이끌다 손님 피해 최소화 </t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 그리다 얻다 근로 자리 최선 다하다 하나 열 메모 학교 진행 업무 정기적 일 갑작스럽다 일 다양 대응 방식 기록 이렇게 작성 업무 매뉴얼 다음 사람 전달 용 이하 인수인계 또한 쉽다 진행 </t>
+          <t xml:space="preserve">대인관계 팀 의견 설명 총 팀 모이다 수월 프로젝트 진행 </t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 아이 크다 꿈 꾸다 도와주다 생각 설레다 수업 들어가다 생각 공부 학생 보다 안타깝다 생각 아이 상담 이외 시간 할당 공부 가르치다 마음먹다 </t>
+          <t xml:space="preserve">대인관계 생활비 벌다 수많다 아르바이트 과외 점주 학부모 이르다 다양 사람 대하다 힘들다 나날 덕분 사람 설득 합의점 찾다 방법 터득 </t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 이때 습관 현재 유지 오다 대학 생활 장기적 계획 세우다 실천 생활 실천 그리고 하루 끝 지나다 시간 돌아보다 내일 더 효율적 시간 관리 위하다 노력 </t>
+          <t xml:space="preserve">대인관계 외부 차장 제 담당 프로젝트 학생 단과대 하루 동안 술집 빌리다 직접 운 영해 수익 남기다 일일 주점 술집 사장 납품 업체 또래 학생 대표 비롯 다양 사람 마주하다 수많다 합의 프로젝트 합의점 아르바이트 합의점 설득 훨씬 많다 얻어내다 힘들다 동안 쌓다 설득 기술 즐기다 활용 결과적 절다 단과대 예산 내 최종 합의 도출 일일 주점 수익 내다 대성공 거두다 </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 초등학생 시절 경제 신문 꾸준히 읽다 결과 매일 경제 주최 경제 퀴즈 대회 참여 학부 시절 경제 학원 학점 받다 그리고 경영학 복수 전공 학기 수강 경영 전략 과목 남다르다 분석 능력 바탕 경쟁 피 티 우수 성과 거두다 </t>
+          <t xml:space="preserve">대인관계 또한 사람 소통 크다 보람 느끼다 처음 보다 사람 편안 만들다 첫인상 언변 크다 자부심 </t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 체계적 학습 결과 회계 재무 관련 전공 과목 모두 학점 이상 취득 또 계획 전산 세무 전산 회계 재경 관리 사 자격증 한번 취득 </t>
+          <t xml:space="preserve">대인관계 저의 의견 철사 고리 이용 고정 의견 두껍다 실 이용 버튼 단추 같다 부착 서로 의견 상상 예상 정도 의견 모두 직접 실험 보다 의견 실험 동안 실험 어떻다 장점 가지다 적다 정리 그리고 다르다 의견 틀리다 생각 생각 이해 노력 </t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 강요 사람 자유 현장 분위기 속 일부 늘다 작업 시간 꾀 부리다 땋다 짓 묵묵히 자재 나르다 솔선수범 저의 모습 친구 자극 받다 열심히 일하 모두 힘 어다 주어지다 프로젝트 무사히 끝내다 </t>
+          <t xml:space="preserve">대인관계 저의 의견 또한 실제 실험 의견 장점 찾다 정리 실험 각각 의견 장 단점 정리 점 더 효율적 정하다 목표 좀 더 가깝다 대하다 회의 통하다 정 결과 가장 시간 버티다 철사 고리 선택 </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 성 실하다 마음 이 대학 시절 주야 가리다 노력 결과 학기 우등생 되돌아오다 </t>
+          <t xml:space="preserve">대인관계 직접 데이터 수집 이르다 활용 영어 동호회 회원 이탈 감소 달성 계속 회원 이탈 동호회 운영 방식 바꾸다 보다 의견 나오다 일부 회원 알파벳 게임 드라마 시청 재미 위 주의 활동 주장 반면 회원 실질적 도움 활동 시도 관련 데이터 수집 회원 설득 첫째 직접 그만 두다 회원 찾아가다 물어보다 대다수 취업 준비 도움 같다 늘다 답변 듣다 둘 직접 주변 곳 영어 동호회 참여 해보다 진행 방식 살펴보다 다 알파벳 게임 흥미 위주 진행 있음 확인 </t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 다르다 전문 부족 고객 요청 빠르다 답변 다짐 결심 이후 매 순간 고객 원하다 서비스 미리 파악 업무 메모 습관 생기다 </t>
+          <t xml:space="preserve">대인관계 인턴 당시 협력 업체 좋다 관계 유지 수월 업무 협조 이루다 야외 업무 많다 부서 특성 상 협력 업체 방문 일 잦다 업무 일지 기록 협력 업체 자주 연락 주다 받다 좋다 관계 유지 </t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 처음 아르바이트 혼자 서도 매장 관리 정도 능력 기르다 그래서 이후 함께 일하다 매니저 모르다 모두 묻다 받다 적다 작다 놓치다 위하다 힘쓰다 </t>
+          <t xml:space="preserve">대인관계 제안 친구 서운 개인적 정말 좋다 제안 칭찬 그리고 친구 팀 이루다 열심히 설문 조사 참여 짧다 시간 안 많다 인원 조사 결과 발표 전문 향상 가장 발표 잘하다 팀 선발 사람 만족 상황 만들기 쉽다 최대 의견 반영 서로 원하다 공통 목적 상기 최선 결과 끌어내다 알다 </t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 결국 포기 근성 기판 봉지 공정 핵심 특허 정리 학점 관심 얻다 </t>
+          <t xml:space="preserve">대인관계 협상 기르다 협상 시뮬레이션 참여 협상 시 효과적 의사소통 스킬 대하다 배우다 이르다 체화 실생활 예시 대입 통금 해제 두다 엄마 딸 입장 협상 실습 적절 근거 대어 양보 설득 실행 합의점 도출 통하다 협상 다양 상황 발생 배우다 협상 사용 기술 활용 고객 만족 업무 협약 타인 과의 협력 필요 일 매끄럽다 진행 도움 확신 </t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 활동 기간 거치다 팀 회장 국내 대회 우승 이루다 경험 삶 끊이다 도전 가능 만들다 팀원 부 회장 회장 역할 차례 수행 매주 이상 시간 활동 투자 </t>
+          <t xml:space="preserve">대인관계 대학교 학년 학교 수업 팀 이루다 설계 프로젝트 참여 프로젝트 시작 책 인터넷 정보 통하다 하드웨어 설계 거의 완성 만들다 특정 컴퓨터 프로그램 알다 같다 팀원 모두 잘 다루다 난항 겪다 코드 익히다 매일 시간 도서관 책 빌리다 다 같이 모이다 공부 프로그램 코드 설계 서로 미루다 다 같이 익히다 결과 팀원 모두 프로그램 코드 설계 법 잘 이해 또한 설계 목표 맞다 잘 설계 프로젝트 통하다 사람 의견 존중 생각 다르다 배척 공통점 찾다 어떻게 많다 사람 인정 결론 내다 법 배우다 </t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 스페인 어르다 가장 잘 동기 공부 방법 묻다 스페인어 쓰이다 기사 매일 하나 읽다 번역 실력 격차 줄이다 위하다 이상 노력 필요 기사 하루 개 번역 마음먹다 스페인 최고 일간지 에다 문 지의 기사 개 인쇄 분석 모르다 단어 형광펜 칠하다 가다 외우다 처음 거의 종이 형광펜 칠하다 시간 흐르다 알다 단어 많다 독해 실력 늘다 스페인 거주 알다 힘들다 정치 경제 사회 전반 깊이 알다 </t>
+          <t xml:space="preserve">대인관계 특히 서류 미비 절차 문제 고객 요구 거절 경우 생기다 고객 설명 잘 듣다 오해 불만 쉽다 풀다 또 한 인터넷 뱅킹 같이 금융 상품 판매 가입 유도 의심 품다 알다 닿다 요청 많이 주신 보다 상대방 마음 열다 부드럽다 의사소통 능력 갖추다 생각 </t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 휴무 반납 고객 상담 계약 이어지다 비율 낮다 달 실적 마감 </t>
+          <t xml:space="preserve">대인관계 문제 모두 중요 고등학교 학년 수험생 시기 당시 반 분위기 공부 파 학우 놓다 자파 학우 로 나뉘다 공부 파 학우 쉬다 시간 뛰놀다 수업 시간 잠 자다 만화책 읽다 반 전체 학습 분위기 해치다 경우 많다 그래서 먼저 과목별 상위권 학생 쉬다 시간 수능 기출 문제 하나 칠판 적다 풀다 부탁 쉬다 시간 칠판 앞 공부 그룹 생기다 차츰 소란 피우다 행동 교실 밖 인식 생겨나다 시작 곧 놀다 파 학우 쉬다 시간 수업 시간 공부 학우 배려 태도 보이다 </t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 더불다 통계 프로그램 대하다 학습 심화 달 기간 걸치다 마케팅 조사 분석사 자격증 취득 </t>
+          <t xml:space="preserve">대인관계 지금 전국 각지 흩어지다 아직 명절 고향 모이다 동창 축구 식사 함께 돈독 지내다 동창 만나다 그때 공부 관심 두다 동창 정 도로 협력 통하다 시너지 배우다 경험 </t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 실습실 사용 겪다 일 당시 실습실 수업 시간 개방 실습실 이용 후 학생 제대로 뒷정리 등 관리 실습실 사용 금지 당하다 담당 선생님 서다 더 이상 개방 못박다 그러다 경우 실습 어려움 겪다 학년 문제 판단 그래서 실습실 사용 끝 남다 뒷 청소 기구 정리 매일 실습실 관리 담당 선생님 직접 찾아가다 매이다 선생님 찾아가다 실습실 관리 계획서 작성 보여드리다 유예 기간 달라다 요청 선생님 서다 고민 끝 약 달 간의 유예 기간 주다 기간 계획서 실행 </t>
+          <t xml:space="preserve">대인관계 인 턴 당시 지점 지사 근무 본사 정책 현장 어떻다 적용 배우다 그중 핵심 내용 그대로 가다 현장 맞다 응용 중요 느끼다 지사 근무 주력 상품 실적 안 나오다 생활 용품 판매 활성화 개선 과제 진행하다 고객 관찰 결과 눈 띄다 상품 진열 상태 대형 할인점 가격 비싸다 인식 판매 부진 알다 문제 해결 상품 조합 묶음 상품 판매 기획 먼저 가격 구간 나누다 상품 조합 고객 취향 반영 그리고 고객 동선 매 대 위치 선정 지점장 생활 용품 판매 활성화 필요성 언급 프로 모션 실시 일간 기록 매출 바탕 달 간 판매 가정 데이터 산출 결과 가량 매출 향상 얻다 예상 지표 작성 결과 통하다 담당 자로 도입 검토 긍정적 반응 이끌다 직무 수행 학문적 실무적 노력 통하다 현상 대하다 분석 섬세 시각 대리점 관리 현장 중요성 직접 느끼다 대리점 현황 파악 지점 별 적합 컨설팅 제시 그리고 영업 필요 제반 활동 지원 대리점 원만 관계 유지 기여 </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 목표 학과 전액 장학금 받다 전공 수업 설계 이루어지다 체계적 계획 세우다 달성 위하다 월간 주간 일간 계획 빠짐없이 세우다 또 밤 오늘 일 정리 내일 일 점검 처음 간 무척 점점 익숙 해지다 달성 올라가다 자신 대견 자랑 이후 성적표 보다 자신 놀랍다 성적표 올 학과 받다 이에 따르다 보상 전액 장학금 받으다 </t>
+          <t xml:space="preserve">대인관계 다양 전공의 학우 팀 이루다 교 개선 통하다 만족도 향상 을 주제 프로젝트 진행하다 단계별 진행 프로젝트 여 처음 팀 조직 다 같이 자료 수집 같이 분석 방식 업무 진행 팀원 전부 시간 맞추기 쉽다 가다 다르다 팀원 묻다 가다 모습 보이다 참여율 들쑥날쑥 하여 불만 생기다 경우 많다 문제 해결 팀원 확실 역할 분담 제안 역할 분담 팀원 각자 가장 자신 분야 선택 업무 편중 심하다 정 이후 각자 맡다 분야 책임지다 자세 갖다 보다 효율적 업무 수행 가능 </t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 목표 이루다 성실 배우다 부회장 선출 학생 좀 더 모범적 모습 보이다 선생님 로 기대감 또한 높다 이러하다 점 압박감 다가오다 부족 이기다 보다 저의 목표 의식 달성 위하다 성실히 제 일 </t>
+          <t xml:space="preserve">대인관계 가장 힘들다 부분 친구 의욕 모습 보이다 처음 답답 마음 한국인 친구 단둘 스다 코딩 자료 조사 진행하다 같다 팀 이래 안 생각 모르다 내용 계속 영어 설명 시작 언어 장벽 부딪히다 바디 랭귀지 사용 말 주고받다 시작 친구 만들다 소질 알다 이후 업무 분담 맡다 프로젝트 발표 모두 성공적 끝마치다 학점 받다 언어 능숙 못 이유 중국인 학우 소외 경우 많다 같이 나아가다 자세 통하다 언어 장벽 극복 모르다 능력 발견 </t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 규칙적 생활 패턴 목표 달성 표 만들다 동안 꾸준히 실천 과정 가장 어렵다 점 매일 반복 생활 지치다 항상 같다 시간 같다 곳 같다 공부 생각 쉽다 일 단조 생활 극복 위하다 축구 동아리 가입 일주일 이상 운동 운동 통하다 건강 얻다 많다 선후배 사귀다 덕분 공부 긍정적 영향 받다 이러하다 노력 해 학과 수석 차지 후 학기 우등생 달성 </t>
+          <t xml:space="preserve">대인관계 또한 학창 시절 대학생 꾸준히 실천 농촌 마을 경관 개선 벽화 그리다 활동 다문화 가정 자녀 대상 영어 교육 봉사 기획 및 진행 다양 봉사 활동 이웃 삶 행복 이바지 있음 보람 느끼다 사업 특성 직원 근무 보람 느끼다 </t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 제조 및 생산 공정 가장 크다 변수 수율 생각 학부 과정 동안 배우다 반응 공학 및 분리 정제 공정 통하다 수율 분석 및 개선 대하다 학습 꾸준히 </t>
+          <t xml:space="preserve">대인관계 이전 사전 모임 팀원 영어 꽤나 잘하다 사실 알다 단지 취약점 이야기 기억나다 또 태어나다 처음 외국인 대면 직접 대화 보다 이야기 기억나다 그리하다 영어 말하다 팀원 자신감 얻다 옆 순간순간 기억 안 나다 단어 알려주다 간단 어구 제시 팀원 스스로 질의 응답 도와주다 시간 좀 더 소요 결국 장 설문지 다 완성 팀원 직접 미국인 대화 설문 조사 마치다 매우 보람차다 이후 보스턴 진행 설문 조사 팀원 전 좀 더 낫다 실력 선보이다 설문 조사 수행 사전 모임 흘려버리다 팀원 이야기 귀담아듣다 팀원 원하다 기억 이르다 실현 도움 주다 좋다 경험 </t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 작년 하반기 교내 주최 취업 페스티벌 스탭 봉사 활동 고시 공부 휴가 이용 꾸준히 봉사 활동 마지막 학기 의미 봉사 활동 </t>
+          <t xml:space="preserve">대인관계 글로벌 챌린지 한 팀원 스스로 질의 응답 도와 설문 조사 마치다 경험 글로벌 챌린지 참여 장애인 대하다 인식 알아보다 떠나다 한복판 각자 장 설문지 받다 흩어지다 설문 조사 한참 설문 조사 진행하다 중 한 팀원 영어 안 힘들다 모습 보다 팀원 돕다 다르다 팀원 배 더 뛰다 장 설문지 빨리 완성 팀원 도움 주다 </t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 완벽 행사 진행 위하다 시나리오 작성 예행 연습 번의 연습 확인 끝 창립 기념일 행사 성공적 마무리 짓다 직원 좋다 평 받다 </t>
+          <t xml:space="preserve">대인관계 아쿠아 움 직접 협조 구하다 제가 마지막 뒷정리 도와주다 조건 봉사자 인력 얻다 이로써 자원 봉사자 업무 효율 높임 동시 융통성 실행력 자산 얻다 직무 충실히 이행 발생 문제 본질 파악 유연 대처 또 타 부서 원만 관계 유지 필요 상대방 협조 이끌다 </t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 학교 수업 멈추다 전기 기사 자격증 준비 전반적 전기 기본 과목 대하다 한번 더 공부 동시 수변 전 설비 실무 필요 지식 공부 또 한 노력 끝 전기 기사 자격증 취득 </t>
+          <t xml:space="preserve">대인관계 상대방 대하다 이해 바탕 공감대 잘 형성 장점 소대장 시절 전입 오다 신병 과의 주기적 면담 실시 각기 다르다 환경 지 덜다 신병 특징 각각 개별 특성 맞추다 면담 진행하다 공감대 형성 낯설다 환경 잘 적응 모습 보다 어떠다 일 우유부단 행동 단점 대학 시절 군 생활 우유부단 인하다 손해 보다 많다 기한 임박 레포트 제출 덜다 시험 기간 벼락 치다 이러하다 습관 군 생활 이어지다 시간 약속 중요 군 더욱 크다 단점 다가오다 그래서 소대장 시절 하루 계획 철저히 세우다 행동 지금 계획 일일 단위 작성 일과 후 실시 결과 점검 우유부단 극복 </t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 다르다 전문 부족 고객 요청 빠르다 답변 다짐 이후 매 순간 고객 원하다 서비스 미리 파악 업무 메모 습관 생기다 결과적 고객 만족 부서 내 신뢰 받다 사원 </t>
+          <t xml:space="preserve">대인관계 어머니 난소암 판정 받다 항암 치료 시작하다 수술 성공적 매일 병간호 들다 충북 이사 엄마 치료 힘쓰다 덕분 현재 건강 되찾다 이후 가족 중함 을 다시 깨닫다 </t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 작년 수영 강습 수강 배우다 얼마 안 평소 도전 좋아하다 수영 대회 참가 아쉽다 차이 메달 획득 실패 주저앉다 동안 꾸준히 연습 마침내 수영 대회 은메달 획득 은메달 획득 안주 앞 금메달 획득 기록 단축 위하다 끊임없이 노력 </t>
+          <t xml:space="preserve">대인관계 반면 단점 이타심 생각 나다 좋다 인상 주다 노력 시간 친구 부탁 들어주다 손해 보다 경험 그러다 반대 협업 많다 업무 타인 배려 장점 작용 생각 </t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 흥미 가지다 열심히 공부 위 과목 모두 성적 받다 반도체 칩 주제 프로젝트 가장 독창적 경제적 방법 반도체 칩 설계 팀 뽑히다 </t>
+          <t xml:space="preserve">대인관계 장점 살리다 화장품 로드 샵 아르바이트 처음 일 배우다 직원 손님 질문 대답 수동적 모습 너무 딱딱 보이다 생각 그래서 손님 친구 이것저것 묻다 손님 관심사 파악 꼭 맞다 제품 추천 결과 점주 고객 제대로 알다 사다 만족도 높다 클레임 줄다 라 칭찬 </t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 가장 열정적 도전적 임하다 군대 전역 복학 뒤 졸업 끊임없이 성적 장학금 받다 위하다 공부 학생 신분 맞다 열심히 공부 전공 지식 관하다 전문 역량 쌓다 가다 개강 매 수업 시간 맨 앞 자리 앉다 위하다 전 강의실 들어가다 준비 수업 시간 교수님 말씀 이해 위하다 노력 이해 안 부분 질문 도서관 공부 깨우치다 수업 끝나다 바로 도서관 달려가다 배우다 듣다 복습 관련 문제 풀다 이해도 높이다 평상시 아침 일어 새벽 공부 시험 기간 그날 목표 달성 잠 자다 이러하다 노력 시험 최상 위권 성적 받다 끊임없이 성적 장학금 받다 </t>
+          <t xml:space="preserve">대인관계 가끔 방송 다문화 가정 모습 보다 눈물 흘리다 외모 다르다 저다 가끔 소외 힘들다 모습 보다 남 일 생각 </t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 당시 게 졸업 논문 대학 생활 마무리 그동안 배우다 지식 전문적 표현 내가 배우다 증명 위하다 최종 관문 같다 따르다 잘 마무리 열정 가득 선배 생각 달르다 명 이미 취업 나머지 선배 또한 이미 대학원 목표 참여도 높다 그러다 포기 혼자 열심히 모르다 혼자 보다 연구실 가다 질문 선배 몫 준비 가다 또 한 생각 진심 전달 진심 통하다 이후 선배 또한 맡다 최선 다하다 결국 졸업 논문 성공적 끝마치다 </t>
+          <t xml:space="preserve">대인관계 말다 경관 달 정 잠시 일하 아직 정기적 만나다 그리고 동료 꼭 참석 지 확인 참석 날짜 옮기다 늘다 분위기 메이커 인정 받다 운동 능력 재치 새 환경 새 사람 대하다 치다 화력 저의 최대 장점 </t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 은행 포항 지점 인턴 근무 동기 함께 조 과제 준비 경험 </t>
+          <t xml:space="preserve">대인관계 층 개방 및 보험 멤버십 카드 실현 통하다 타 금융권 비하다 좋다 이미지 개선 열심히 뛰다 마음속 손해 보험 실현 만들다 오시 고객 인터넷 이용 자연 보험 관련 상담 열리다 회사 만들다 최선 다하다 보험 가입 고객 멤버십 카드 이용 하여 늘다 손해 보험 혜택 받다 인식 가지다 </t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 결과 학년 학기 전공 과목 전부 달성 이러하다 공부 습관 지속 학년 학기 평점 달성 결국 졸업 시 전공 평점 끌어올리다 학년 이후 성적 장학금 놓치다 적이 또 한 과의 선발 전공 지식 저학년 티 학생 가르치다 트다 링 프로그램 현재 학기 시간 참여 오다 </t>
+          <t xml:space="preserve">대인관계 인턴 당시 주인 의식 발휘 연락처 명단 최신 시키다 고객 업체 불편 해결 순간 정전 발생 연락 못 받다 업체 민원 전화 걸리다 연락처 명단 오래되다 잘못 연락처 연락 간 탓 차장 지시 해당 업체 연락처 수정 명단 파일 훑어보다 전기 안전 관리자 분 바뀌다 업체 많다 이대 업체 똑같다 문제 재발 생각 업체 검토 보다 업체 전기 안전 관리자 분 일일이 전화 걷다 연락처 최신 시키다 중 상호명 주소 바뀌다 업체 발견 상호명 주소 수정 방대 양의 작업 작업 인하다 지역 업체 비상시 빠르다 상황 파악 대처 생각 자발적 추가 작업 시행 결국 업체 최신 상호명 주소 전기 안전 관리자 분 연락처 모두 정리 명단 작성 고객 우선 여기다 신입 사원 </t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 특히 개인 정보 암호화 검사 시행 전날 미리 공지 미리 암호화 달 일주일 이상 보안 지수 관리 매달리다 결과 정보 보안 지수 만점 받다 또 한 끊임없다 분석 관찰 일 해내다 교훈 얻다 </t>
+          <t xml:space="preserve">대인관계 주변 사람 나무 같다 표현 가깝다 지인 힘들다 일 먼저 위 힘 주리다 친구 이렇다 믿음직스럽다 나무 같다 친구 부르다 주변 친구 도와주다 뿌듯 보람 느끼다 이후 대학교 시절 성격 덕분 많다 친구 사귀다 활동 참여 베 품 실천 부모 정 아이 학습 우 미가 야학교 어르신 검정 고시 선생님 </t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 먼저 주 월 달리다 연습 마라톤 출사 표 내밀다 시간 골인 경기 후 동안 잠들다 실패 요인 페이스 조절 실패 및 정신력 부족 그래서 후반 페이스 저하 감안 구간별 페이스 산출 마라톤 준비 또 한 산악 달리기 통하다 정신적 집중력 향상 </t>
+          <t xml:space="preserve">대인관계 화장품 영업 아르바이트 마찬가지 달 친절 직원 선정 고객 편의 행복 우선 여기다 남 베풀다 도와주다 행위 귀찮다 부질없다 짓 여기다 모르다 도움 인하다 상대방 얼굴 퍼지다 미소 가치 무엇 바꾸다 없다다 생각 앞 남 돕다 베풀다 살아가다 사람 </t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 어학연수 기간 빠짐없이 언어 교환 모임 참가 비록 프리 토 킹 수준 그다음 달 어학원 열리다 레벨 테스트 제일 높다 반 이동 모전 우수 받다 통하다 주어지다 상황 안주 도전 목표 이루다 자신감 얻다 </t>
+          <t xml:space="preserve">대인관계 학창 시절 축구 동아리 전략 팀장 맡다 교내 월드컵 좋다 성적 내다 구성원 소통 협력 경험 대회 앞두다 전략 팀장 공정 선수 선발 대하다 고민 많이 공정 선수 선발 서로 간 신뢰 쌓다 좋다 팀워크 나타나다 믿다 그러다 선발 출전 보장 학번 선수 반발 인하다 선후배 간 갈등 초래 이에 담당 팀장 쌍방 의견 수렴 방법 모색 선후배 간의 간담회 주최 통하다 더 낫다 실력 선수 선발 공감대 형성 포지션 테스트 실시 실력 겨루다 보다 합의 이루다 이후 테스트 통하다 결과 의하다 선수 선발 선발 명단 대하다 잡음 없애다 팀워크 한층 끌어올리다 동아리 최초 강 진출 결과 나타나다 일다 구성원 서로 믿다 배려 덕분 이루어지다 값지다 성과 생각 교내 월드컵 준비 상호 간 공감대 형성 공동 목표 이루다 몸소 깨닫다 향후 어떠하다 어려움 뭉치다 해결 나가다 힘 배우다 </t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 항상 원하다 실험 결과 나오다 연구실 팀원 함께 새벽 늦다 까다 실험실 남다 언제 끝나다 모 전송 테스트 진행하다 예상 결과 나오다 맞다 합 분석 바로 잡다 실험 지속 마침내 원하다 목표 성능 확보 제 기한 연구 결과 보고서 작성 올리다 </t>
+          <t xml:space="preserve">대인관계 군 제대 후 대형 마트 카트 파 지르다 담 일 주말 발생 파지 부족 문제 해결 주차 팀 소속 포장 사용 파지 카트 부족 연락 받다 채우다 일 맡다 문제 주말 파지 부족 파지 수거 장 수거 파지 양 주말 평일 별반 다르다 일주일 유일 파지 많이 나오다 날 그날 상품 들어오다 수요일 손님 주말 비하다 많다 주중 특히 수요일 최대한 많다 양 파지 수거 마감 때쯤 주말 사용 비상용 파 지르다 매일 카트 만들다 노력 상품 사다 파지 가져가다 사람 저지 쓸데없이 파 지가 손실 방지 그리고 주말 수거 장소 매장 안 직접 둘러보다 파지 찾다 다니다 이러하다 노력 주말 파다 부족 인하다 문제 고객 불만 잠재우다 </t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 약 시간 달하다 아르바이트 하면서 영업 업무 간접적 경험 </t>
+          <t xml:space="preserve">대인관계 구성원 다양 의견 단일화되다 이끌다 경험 팀 프로젝트 과정 무임승차 자 발생 조 과제 소극적 참여 학생 대하다 패널 티 얼마나 주다 다양 의견 나오다 소극적 참여자 일부 의도적 과제 소극적 아니다 주장 소극적 참여자 조원 자신 입장 내세우다 조 토론 진행 어려워지다 이에 절다 갈등 해결 조원 제가 갈등 해결 토론 원활히 진행 다소 시간 걸리다 다수 만족 해결책 내다 양측 입장 경청 판단 그리고 이르다 최대한 반영 조원 만족 합의점 도출 그리고 조원 결과 공유 조원 의사 최대한 반영 그러다 조원 제가 제안 합의 결과 수용 갈등 마무리 </t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 현장 직접 고객 응대 고객 요구 방향 마케팅 중점 두다 부분 개선 점 파악 상사 사장님 피드백 드리다 매출 향상 </t>
+          <t xml:space="preserve">대인관계 오랫동안 메뉴 없애다 갈등 학기 동안 수익금 객관적 데이터 가지다 반대 팀원 설득 결과 음료 만들다 시간 단축 밀리다 주문 전체 수익금 배 늘어나다 빠르다 적극적 추진력 수익금 증액 이루다 </t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 체육 시간 줄넘기 연속 뛰다 수행 평가 적이 당시 체육 약하다 부분 연습 시간 내내 단 성공 수행 평가 높다 벽 연습 보다 점점 오기 생기다 꼭 해내다 마음 먹다 그래서 덥다 여름 친구 그늘 쉬다 땡볕 혼자 수 없이 넘어지다 연습 그리고 방과 후 혼자 남다 줄넘기 연습 귀가 얼굴 새까맣다 타다 다리 많다 상처 생기다 이렇다 꾸준히 최선 다하다 노력 결과 성공 그렇다 수행 평가 받다 </t>
+          <t xml:space="preserve">대인관계 관계 기반 글로벌 커뮤니케이션 영업 거래처 확보 필수 관계 기반 두다 글로벌 커뮤니케이션 역량 기르다 우선 국제 학교 청소년기 통하다 존중 이해 바탕 커뮤니케이션 자세 키우다 또 간 영자 신문 사 활동 관계 시작 유지 확장 방법 터득 바탕 청년 인턴 바이어 니즈 지속적 파악 사업 보완 이에 많다 고객 만족 추후 사업 계속 참가 결과 얻다 </t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 또한 주간 이상 현장 찾다 소비자 관찰 고객 부담 느끼다 조심 설문지 적극적 작성 고객 먼저 대화 나누다 피드백 얻다 </t>
+          <t xml:space="preserve">대인관계 팀원 가장 중요 간과 논문 작성 가장 중요 실험 통하다 결과 도출 결과 분석 팀원 논문 겉모습 신경 쓰다 기초 실험 중요성 생각 낮 참여율 이어지다 그래서 좋다 논문 기초 실험 중요 팀원 설명 개인 능력 맞다 실험 분배 책임감 느끼다 결과 팀원 참여율 높이다 논문 발표 좋다 평가 받다 이러하다 경험 통하다 문제 마주하다 근본적 무엇 중요 이르다 해결 구성원 어떻다 참여 문제 해결 대하다 능력 함양 이러하다 능력 활용 앞 직면 문제 잘 해결 </t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 퇴근 주말 업무 끝나다 알다 군 장교 직무 책임 다하다 이제 제일제당 담당 파트 품질 생산량 위하다 퇴근 항상 핸드폰 손 쥐다 각오 </t>
+          <t xml:space="preserve">대인관계 사람 만나다 좋아하다 먼저 다가가다 친화력 기르다 성격 처음 사람 만나다 먼저 다가가다 상대방 말 경청 타인 좋다 관계 유지 도움 </t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 이유 건물 건축 설비 토목 건축 전기 엄청 많다 공정 공정 간섭 충돌 생기다 체크 관리 설비 공정 계속 체크 검 놓치다 않다 위하다 아침 도면 들다 현장 돌다 설비 얼마큼 진행 오다 공정도 얼마큼 체크 메모 장 메모 </t>
+          <t xml:space="preserve">대인관계 백화점 판매 아르바이트 시스템 오류 고객 제품 준비 적이 품절 팝업 창 뜨다 해당 상품 주문 매장 방문 옷 구하다 강력 불만 표하다 당시 브랜드 신뢰도 떨어지다 막다 적극적 고객 응대 직원 분 난동 피우다 손님 기피 드다 이상 매장 시끄럽다 고객 실례 판단 고객 말 귀 기울이다 사비 상품권 사은품 드리다 번거롭다 대하다 죄송 마음 표현 고맙다 고객 진심 알아주다 웃다 배웅 실수 아니다 사람 피해 주다 안되다 늘다 신념 갖다 근무 시간 이외 서비스 응대 결과 서비스 만족도 높이다 </t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 현장 실습 끝나다 뒤 제가 부족 지식 더 채우다 위하다 기사 자격증 준비 건축 설비 자격증 취득 추가 공조 냉동 기사 소방 설비 기사 따다 위하다 공부 </t>
+          <t xml:space="preserve">대인관계 카드 업 핵심 역량 고객 이해 능력 기자 교사 종업원 등 다양 방식 사람 만나다 상대 이해 필요 캐치 일 크다 강점 보이다 일다 고객 직원 꼭 필요 서비스 제안 해내다 일 꼭 필요 역량 </t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 더불다 학생 눈 맞추다 대화 나누다 학생 진심 마음 나누다 현재 마음 가장 따뜻 남다 추억 그리고 경험 제가 초등학교 대학생 대상 캠프 학생 진로 상담 및 리 강화 교육 강사 일하다 </t>
+          <t xml:space="preserve">대인관계 별명 카다 운 셀러 친구 다양 고민 잘 들어주다 조언 </t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 여름 혼자 사다 할머님 집 수리 봉사 활동 경험 통하다 강 의지 갖다 추진 못 해내다 깨닫다 당시 휴학 사법 시험 준비 공부 컨디션 조절 실패 인하다 봉사 활동 전날 잠 설치다 배탈 겹치다 몸 매우 좋다 게다 공부 많이 밀리다 팀원 양해 구하다 봉사 활동 못 갈다 고민 어렵다 분 도움 열정 신청 봉사 활동 눈앞 못 그리고 저의 불참 곧 다르다 팀원 폐 끼치다 생각 들다 힘들다 예정 참여 </t>
+          <t xml:space="preserve">대인관계 선배 통하다 화공 프로세스 교내 공모전 대하다 알다 참여 의사 자신감 수시로 어필 이후 학과 교수님 화공 프로세스 팀장 참여 제안 받다 흔쾌히 받아들이다 </t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 낮 서류 진행 위하다 이장 지역 면사무소 직원 정확 정보 얻다 위하다 노력 아직 뜨겁다 해 뜨다 새벽 시간 일어 목초지 농지 규격 맞다 개간 </t>
+          <t xml:space="preserve">대인관계 기관장 내외 함께 행사 대규모 인원 이동 순간 많다 동선 관심 기울이다 운전기사 대우 소홀 해지다 이에 운전 기사 불만 많다 숙식 대우 개선 요구 개별적 차량 이동 거부 갈등 깊어지다 행사 일정 차질 방법 고심 명령 권한 없었다 행사 대하다 인식 운전기사 영향 미치다 경우 많다 달래다 방법 고민 불만 사항 파악 막내 제가 식사 자리 참여 술 잘 마시다 좋다 금방 불평 쏟다 불평 기저 와의 차별 대하다 자격지심 깔리다 이후 다음날 호텔 따로 부탁 기념품 나누다 수시 연락 존중 배려 늘다 인식 주다 결과 낳다 점심 기사 주관 부서 수행원 적극적 행사 참여 출장 일정 오차 없이 끝내다 </t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 이외 매일 이상 공부 쌓다 지식 과정 속 길르다 끈기 인내심 캐나다 교환 학생 통하다 익히다 글로벌 마인드 언어 능력 다양 아르바이트 통하다 체득 센스 조직 적응 능력 대학 교양 수업 익히다 기초 회계 지식 법 학회 학술 동아리 익히다 사례 대하다 판례 분석 경험 제가 앞 농협 자산 관리 회사 사무 관리 직무 수행 도움 생각 </t>
+          <t xml:space="preserve">대인관계 우유 유통업 부모님 고객 상대 열악 근무 환경 불평 한마디 내색 한번 묵묵히 일 모습 맡다 일 책임감 가지다 포기 끈기 노력 배우다 더불다 고객 대하다 태도 방법 늘 옆 지켜보다 자연 습득 인하다 새롭다 사람 만나다 적극적 먼저 다가가다 대화 상대방 흥미 취미 관계 얘기 공감 이끌어내다 특유 친화력 많다 사람 교류 좋다 인상 심다 </t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 수상 번번이 실패 지속적 피드백 통하다 보강 </t>
+          <t xml:space="preserve">대인관계 고등학교 당시 락 밴드 활동 하면서 선배 만들다 엔터테인먼트 가입 매년 선후배 정기적 공연 하면서 실력 겨루다 체육 대회 하면서 대선배 과도 친하다 계기 마련 음악 공통 관심사 가지다 선후배 많다 교류 남다르다 애착 생기다 주기적 연습실 방문 후배 좋다 환경 속 연습 도움 주다 모교 방문 </t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 경영진 조사 결과 설득력 전달 위하다 데이터 수집 및 분석 기획 자료 제작 맡다 진행 매주 회 교수님 회의 통하다 개선 안 피드백 받다 직접 쉬다 라이프 님 찾다 뵙다 설득 </t>
+          <t xml:space="preserve">대인관계 입사 후 저의 목표 팀원 특유 사교 성과 다수 대외 활동 통하다 만들다 대인 관계 형성 능력 조직 어울리다 사원 </t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 주기적 연습실 방문 후배 좋다 환경 속 연습 도움 주다 위하다 모교 방문 </t>
+          <t xml:space="preserve">대인관계 인생 타인 배려 중요 없다다 생각 함께 세상 끊임없이 서로 협력 생각 </t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 상담 주로 많이 받다 질문 내용 정리 모르다 내용 기록 하여 퇴근 후 공부 </t>
+          <t xml:space="preserve">대인관계 교지 편집 위원 활동 축구 동아리 회장 생활 통하다 다양 사람 소통 통하다 사람 입장 서다 이해 공감 능력 상대방 배려 의견 이야기 전달 능력 기르다 </t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 확고 의지 함께 주간 이루어지다 하루 시간 수업 빠지다 없이 성실 참여 남다 시간 외국인 학생 어울리다 배우다 중국어 연습 </t>
+          <t xml:space="preserve">대인관계 새 시도 구축 시스템 많다 팀원 가능 촬영 수업 찍다 주기도 편집 과정 새롭다 도입 어려움 겪다 자신 일 아니다 서로 돕다 뉴스 업 로드 전날 함께 밤새 편집 마무리 </t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 퇴근 후 무료 강좌 블다 로그 통하다 업무 필요 기능 익히다 같이 인턴 학교 후배 이해 부분 배우다 이후 도움 필요 업무 적극적 지원 자연스레 다양 업무 수행 </t>
+          <t xml:space="preserve">대인관계 먼저 대화 시도 붙임성 장점 </t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 코리아 인턴 근무 사랑 연탄 나르다 봉사 활동 참여 아침 일찍 상 주민 센터 이동 이후 각각 골목길 줄짓다 서서 연탄 나르다 </t>
+          <t xml:space="preserve">대인관계 배정 할당량 소화 멘토링 달리 계획 실행 전체 과정 진행하다 새롭다 방식 중요성 알다 먼저 멘토링 진행 후배 과의 만남 시작하다 기존 알다 지내다 인맥 이외 새 사람 만나다 전공 대하다 의문점 진로 대하다 고민 함께 나누다 </t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 학창 시절 동안 반장 경험 학생회 활동 </t>
+          <t xml:space="preserve">대인관계 적극적 다가가다 대화 이끌어가다 화법 우선 많다 사람 먼저 다가가다 많다 활동 지원 </t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">성실성 쉬다 새 없이 시간 유량 체크 제대로 공 정의 운영 위하다 움직이다 그러다 눈치 살피다 동료 스스로 일 찾다 움직이다 시작 업무 분담 유기적 이루다 </t>
+          <t xml:space="preserve">대인관계 교내 선발 해외 학술 탐방 팀 조직 직접 주제 선정 계획 목표 이루다 준비 전공 다르다 팀원 의견 상충 상황 소통 통하다 극복 이해관계 엇갈리다 팀원 이야기 충분히 들어주다 감정적 흐르다 회의 서로 이해 유도 </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 또한 동아리 임원 활동 통하다 구성원 소통 통하다 화합 조직 성패 얼마나 중요 깨닫다 바탕 선배 동기 사이 친목 도모 징검다리 역할 </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 끝 완주 이유 포기 마음 동료 하루 보통 얼마 정도 걷다 힘들다 피곤하다 꼭 저녁 팀원 미래 가치관 꿈 얘기 서로 힘 조금 힘들다 함께 즐거움 배가 힘들다 반 국토 대장 정 통하다 포기 점 팀워크 중함 깨닫다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 단원 함께 수많다 고민 끝 사라지다 응원단 밴드 부활 새롭다 응원 도구 및 응원 가르다 제작 사라지다 응원단 밴드 살리기 쉽다 동아리 와의 연합 불가능 상황 밴드 새롭다 꾸리다 에다 예산 시간 턱없이 모자라다 이에 후배 함께 수소문 끝 청소년 음악제 수상 만나다 신곡 준비 및 콜라 무대 계획 응원 도구 접다 쓰다 부채 바꾸다 부채 양면 응원단 홍보 문구 제작 이러하다 노력 입학식 무대 성공적 마치다 이후 성과 나타나다 단원 지금 정도 성장 학교 공로 인정받다 가족 상 받다 성과 이루다 늘다 많다 시간 노력 필요 선후배 함께 협력 응원단 나아가다 방향 잡다 안정적 성장 이루다 뿌듯 느끼다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 쾌활 밝다 성격 인간 관계 적극적 사람 과의 만남 소중 생각 한번 만나다 사람 느다 오랫동안 친분 유지 지내다 이러하다 장점 조직 구성원 단결 인 동기 부여 긍정적 영향 주다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 가장 애착 가지다 인물 간 창업 보육 프로그램 매니저 담당 창업 팀 멤버 입 니다 서로 이해관계 기반 성공적 협업 이루다 경험 덕분 당시 어떠하다 지원 활동 기획 고민 창업 팀 선뜻 업무 내용 및 방식 공유 이르다 기반 절다 모바일 마케팅 특강 프린트 대여 요구 사항 수렴 지원 활동 기획 팀 이러하다 저의 활동 신뢰 보내다 적극적 참여 결과 팀 팀 투자 유치 성공적 성과 만들다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 교내 학술 동아리 홍보 부장 신입생 유치 동아리 홍보 낯설다 사람 직접 만나다 사람 사이 소통 중요성 배우다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 중국인 학생 조원 팀 과제 수행 소통 해결 사가 수업 잘 참여 중국인 학생 로 인하다 원활 의사소통 어려움 소통 해결 사 역할 결심 학생 많다 대화 나누다 노력 과제 대하다 내용 일상적 이야기 나누다 친하다 노력 또 한 외국인 팀원 속하다 좀 더 쉽다 임무 주다 경우 많다 팀원 공정 일 나누다 중국인 학생 존중 방법 생각 결과 중국인 학생 믿다 따라오다 팀 과제 또한 성공적 마무리 </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 주변 사람 소소 행복 나누다 노력 매년 정도 친구 직접 축하 전화 걸다 직접 선물 편지 챙기다 전달 얼마 전 가깝다 친구 취업 축하 마음 머그잔 비타민 포장 편지 함께 전달하다 이렇다 주변 사람 생일 다가오다 기억 작다 선물 편지 마음 베풀다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 예전 다양 경험 학교 동아리 동호회 활동 자신 모르다 장점 발견 사람 흔히 단체 생활 리더십 분위기 끌어가다 사람 좋아하다 경우 반대 모두 즐겁다 분위기 만들다 갈다 만들다 사람 힘들다 군 시절 어차피 겪다 일 즐기다 마음가짐 동료 다독이다 경진 대회 참가 며칠 밤 새다 몰두 다 지치다 일부러 더욱 힘 내다 모습 보여주다 평소 비록 눈 띄다 조용 성격 조직 내 앞 끌다 역할 모두 지치다 뒤 밀어주다 동료 작다 도움 </t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 영상 제작 오다 겪다 경험 예 들다 흔히 사다 공이 배 산 가다 경우 달르다 영상 편집 비판 가하다 동기 늘 고맙다 보다 부족 점 발견 반대 상대 의견 동의 설득 한바탕 언쟁 벌이다 원래 제가 의도 방향 더 또렷 해지다 느끼다 이처럼 소통 발전 팀 일 기회 생기다 동료 의견 나누다 배우다 점 찾다 부족 부분 메꾸다 앞 주변 통하다 배우다 발전 </t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 절다 웃음 정말 많다 그리고 어리다 항상 주변 웃다 그러다 재능 처음 새 사람 만나다 어색 푸다 역할 항상 도맡다 덕분 선배 후배 사이 징검다리 역할 선배 후배 서로 교류 친하다 지내다 성격 상 사람 꼭 찾다 그렇다 쓰이다 가장 크다 행복 느끼다 웃음 시너지 효과 믿다 함께 웃다 행복 배가 알다 앞 나이 먹다 새 사람 만나다 사람 웃다 행복 꿈 그래서 사람 힘들다 지치다 찾다 사람 다시 행복 만들다 순간 행복 자연 찾다 생각 </t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 간 동아리 활동 재미 이상 선물 주다 처음 잘 따라오다 몸 속상하다 적도 좋다 시작 춤 연습 도 즐겁다 학기 정규 강습 참석 방학 팀장 공연 기획 팀원 가르치다 일도 팀원 수준 안무 짜다 버겁다 팀원 개인별 강습 무대 멋지다 춤 추다 팀원 보다 함께 성장 기쁨 맛보다 다르다 대학교 댄스 스포츠 동아리 연합 공연 기획 의견 충돌 인하다 공연 무산 위기 가기 중재자 역할 감당 의견 배려 수용 태도 또한 배우다 일련 활동 힘 들다 있었다 시간적 부담 늘다 즐거움 삶 활력 주다 원천 처음 동아리 가입 제가 다짐 즐기다 마음가짐 늘 잊다 노력 </t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 총 조원 뭉치다 조원 사이 원활 징검다리 역할 맡다 일정 첫날 여 후배 부적응 인하다 조원 사이 어색 지속 조원 모두 완주 늘다 공 동의 목표 달성 조원 사이 좁히다 생각 그래서 조원 사이 좁히다 먼저 조원 사이 공통점 찾다 대화 유도 후배 함께 어우러지다 독려 또 한 체력 약하다 후배 중도 포기 고민 모습 보이다 그래서 후배 체력 상황 일정 마치다 빨래 취침 준비 돕다 그리고 뒤처지다 후배 따라가다 걷다 북돋우다 좀 더 힘들다 공 동의 목표 달성 열정 후배 돕다 조원 사이 원활 노력 </t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 이번 경험 통하다 팀워크 중함 깨닫다 발표자 실수 팀원 정확 깔끔 정리 자료 덕분 내용 쉽다 이해 발표 </t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 코드 익히다 매일 시간 도서관 책 빌리다 다 같이 모이다 공부 프로그램 코드 설계 서로 미루다 다 같이 익히다 결과 팀원 모두 프로그램 코드 설계 법 잘 이해 또한 설계 목표 맞다 잘 설계 프로젝트 통하다 사람 의견 존중 생각 다르다 배척 공통점 찾다 어떻게 많다 사람 인정 결론 내다 법 배우다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 누 시키다 잘하다 분야 대하다 스스로 리더 그리고 리더 아니다 팀원 발휘 리더 잘 따라가다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 봉사 활동 통하다 만난 경찰관 아르바이트 당시 거래처 담당 직원 기숙사 생활 반 간 동고동락 프랑스인 룸메이트 이르다 원만 대인 관계 바탕 주기적 만남 연락 지속 </t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 입시 학원 국어 강사 일하다 협상 능력 키우다 다양 니즈 가지다 학부모 상담 학원 입장 학부모 입장 중간 조율 징검다리 역할 학부모 입장 학원 견해 다르다 서로 맞다 합의점 찾다 어렵다 학부모 의견 경청 뒤 학원 입장 알다 서로 원하다 결과 찾다 융통성 대처 </t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 외국어 진행 반응 공학 수업 시간 중국인 팀원 한국 학생 대상 발표 발표 준비 팀 모임 중국인 팀원 전공 용어 한국어 전달 과정 의사소통 어려움 느끼다 팀장 중국인 팀원 겪다 어려움 도와주다 자주 등장 전공 용어 번호 붙이다 의사소통 방식 결과 예전 준비 시간 줄어들다 효율적 팀 회의 진행 특히 유학생 친구 매번 팀 활동 어려움 겪다 방법 같이 참여 고마워하다 새롭다 아이디어 팀워크 발휘 점 인정받다 우수 팀 평가 받다 프로젝트 마무리 </t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 대학교 학년 동안 남양주시 청소년 집안 형편 어렵다 학생 대상 교육 봉사 프로그램 활동 적이 사회 구성원 대학생 제가 가장 잘하다 교육 통하다 기여 마음 시작하다 처음 봉사 활동 지원 동기 함께 아이 배정 받다 기회 아이 태도 수업 태도 불량 혹은 남학생 고학년 친구 장난 많이 치다 가르치다 봉사자 적다 오히려 친구 더 잘 가르치다 낫다 길 인도 먼저 서다 아이 메다 토 선정 친구 교과 과목 가르치다 전 친하다 중요 생각 매번 분 일 가다 아이 탁 구르다 치다 친밀감 쌓다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 적다 많다 나이 차이 나다 사회적 지위 고하 다양 내빈 듣다 어려움 없이 대접 그치다 목표 주어지다 목표 초과 달성 저의 대인 관계 능력 추진력 경험 바탕 오 쇼핑 대외 협력 팀 입사 지원 이끌다 내야 대상 지원 대상 관계 기관 파트너 사 관계 부서 들 부여받다 경영 목표 피다 달 사원 </t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 자취 이상 요리 즐기다 홍 콩 교환 학생 기숙사 같이 요리 즐기다 외국인 친구 국제 음식 대회 출전 한식 만들다 판매 홍 콩 팀원 상의 맞춤 형 한식 홍보 진행하다 팀 수익 인기상 결실 </t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 행정 업무 처리 모두 담당 지역 센터 거래처 다양 연령 대의 사람 소통 업무 처리 신뢰 쌓다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 군 생활 당시 동료 고등 학교 검정고시 반 추진 적이 동료 전역 후 낫다 삶 살아가다 원하다 시작 </t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 지원 활동 끝나다 지속적 운영 음료 별 레 시피 고객 응대 책자 만들다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 더 나아가다 발전 같다 생각 테이블 돌아다니다 말 걸다 새롭다 사람 친하다 노력 </t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 사람 함께 일하다 부서 일원 타인 조화 지내다 능력 역시 조직 내 개인 가지다 경쟁력 생각 </t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 어렵다 힘 듣다 저의 수고 더하다 일 친구 기꺼이 항상 붙다 다니다 이미 친하다 친구 친구 걱정 고민 덜다 사소 마음 쓰다 위로 도움 일 찾다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 특히 축구 좋아하다 평소 친하다 지내다 친구 사람 모으다 축구 모임 만들다 대학생 소 모임 사이트 글 올리다 사람 모으다 시작 모임 지금 넘다 커지다 지금 사람 넘다 친분 쌓다 오다 축구 </t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 옆 부서 체험 형 인턴 동기 취업 고민 나의 고민 경청 함께 해결책 모색 </t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 이에 거부감 보이다 대리점 주 작다 음료 항상 웃다 얼굴 먼저 인사 드리다 또 현장 점검 불필요 부분 파악 대리점 주의 경영 방식 존중 통하다 꼼꼼 현장 점검 오히려 대리점 주 챙겨주다 즐겁다 분위기 형성 </t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 가끔 오지랖 넓다 소리 듣다 주위 사람 잘 바라다 마음 행동 잘못 표현 과도 관심 가지다 전 상대방 동의 의사 먼저 물어보다 고치다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 성격 또 다르다 장점 쉽다 친하다 친화력 처음 만나다 사람 분위기 어색 해지다 피하다 먼저 다가가다 분위기 이끌어가다 스타일 </t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 학창 시절 다수 리더 경험 성인 낳다 후 조직 리더 역할 항상 자신감 당시 구성원 참여율 저조 모임 나오다 인원 채 지상주의 인하다 학우 도움 동아리 찾다 구체적 목적 향우회 도태 해결 축구부 마니또 밥 사 주기 이벤트 다양 소 사업 진행 함께 활동 통하다 선배 후배 간 유대감 끈끈 해지다 서로 의지 돈독 선후배 관계 형성 </t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 게임 동아리 공감대 형성 틈틈이 이 게임 경기 보다 게임 이해 동아리 사람 함께 게임 공감대 형성 </t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 게임 전 소외 경험 바탕 동아리 게임 여자 후배 게임 이야기 약속 게임 여자 후배 공감대 찾다 드라마 연애 문제 여자 후배 공감 주제 찾다 이야기 또 한 바둑 공감대 가지다 띠 동갑 차이 나다 선배 공감대 형성 바둑 두다 술 마시다 어울리다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 창업 활동 용역 업체 관리 다양 사람 보다 대부분 각자 분야 전문 성과 스타일 갖다 의견 충돌 자주 겪다 과정 각자 입장 이해 존중 자세 소통 업무 조율 해내다 최상 시너지 만들다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 따르다 동창회 테이블 옮겨가다 오랜만 만나다 친구 이야기 듣다 공감 이야기 하면서 소통 노력 덕분 주변 함께 나아가다 친구 많다 같다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 취업 준비 바쁘다 조원 프로젝트 등 시하 팀원 실망 팀 혼자 해결 모습 보다 그래서 파워포인트 제작 설계 재료 구매 맡다 적극적 조장 도와주다 팀장 심정 공감 팀 팀원 나쁘다 마음 갖다 노력 </t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 연주회 후 개인적 연락 오다 간 재밌다 동아리 이끌다 고맙다 인사 듣다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 저의 강점 다양 대외 활동 아르바이트 경험 통하다 많다 사람 만나다 쌓다 오다 소통 능력 생각 </t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 막내 활력 불어넣다 함께 일하다 선배 아주머니 로 사랑받다 막내 </t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 초기 모두 열정 시간 지나다 친구 열정 부족 해지다 시작 친구 함께 설득 마음 잡다 함께 나아가다 친구 도와주다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 항상 지키다 노력 그렇다 행하다 주변 친구 사이 꼭 필요 존재 고민 상담 대화 꼭 부르다 대화 </t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 많다 대외 활동 봉사 활동 통하다 사람 인간 관계 유지 법 몸소 체험 또 한 상대방 생각 진심 어리다 대화 서로 유대 관계 더 끈끈 만들다 느끼다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 주변인 편입생 신분 적극적 성향 학과 행사 참여 학우 친분 쌓이다 학과 토질 실험실 소속 자연 농어촌 공사 근무 선배 들다 과도 연결 많다 정보 알다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 갖다 여유 주변 적극적 도움 따뜻 응원 얻다 생각 감사 표 앞 더 돈독 관계 다지다 자리 만들다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 평소 모임 사회생활 필요 원하다 사람 자리 매우 즐겁다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 민 친구 귀 상담 사가 도움 필요 친구 손 발 조력자 이렇다 늘다 사람 좋다 웃음 함께 주변 잘 돌보다 모습 만만 보이다 역설적 의미 친구 붙이다 별명 </t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 이르다 통해 학교 아르바이트 취미 활동 수많다 대인 관계 소중 인연 맺다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 선배 동기 후배 가리다 제가 돕다 일 생기다 발 벗다 나서다 주변 사람 많다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 주변 사람 생일 빼먹다 전화 또 한 값비싸다 선물 작다 선물 함께 직접 꾸미다 편지지 편지 쓰다 그래서 인지 전 졸업 대학 선배 아직 기억 보다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 대학교 다니다 방학 저소득 자녀 무료 공부 시설 봉사 사람 손길 부족 아이 사랑 정성 다가가다 많다 사람 지내다 과정 자신 내려놓다 사람 마음 헤아리다 사람 생각 지내 오다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 상대방 고충 들어주다 이해 노력 거듭 생각 이기심 버리다 상대방 먼저 생각 </t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 코 파이 한국적 정서 정 내세우다 과자 많다 사랑 받다 주위 사람 늘 정 많다 사람 통하다 친구 연잇다 강의 끼니 제때 못 챙기다 먹다 매점 급하다 뛰어가다 우유 사다 친구 손 쥐이다 어찌 보다 작다 일 주위 사람 작다 감동 주다 우정 돈독 계기 적도 많다 정은 주위 좋다 기운 빠르다 퍼트리다 능력 </t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 나다 보이다 노력 덕분 선후배 모두 삼촌 부르다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 가장 크다 장점 이러하다 업무 처리 능력 아니다 도넛 같이 모나다 성격 학창 시절 마당발 불리다 친구 쉽다 사귀다 관계 지속적 유지 재능 회사 생활 동안 싫어하다 사람 한명 같다 늘다 말 많이 듣다 성격 크다 장점 점 알다 회사 생활 업무 갈등 성격 인하다 갈등 가장 많다 이러하다 부분 강점 어떠하다 어려움 이기다 원동력 </t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대인관계 날 퇴근 가다 왜 아까 환자 더 상냥 대하다 돌아보다 앞 항상 환자 먼저 생각 밝다 미소 대하다 의사소통 다짐 후 병원 더 즐겁다 다니다 인하다 웃다 환자 분 보다 기분 너무 좋다 </t>
         </is>
       </c>
     </row>
